--- a/data/claimant-count.xlsx
+++ b/data/claimant-count.xlsx
@@ -28,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="301">
   <si>
     <t>Northern Ireland</t>
-  </si>
-  <si>
-    <t>UK (thousands)</t>
   </si>
   <si>
     <t>People</t>
@@ -1000,22 +997,37 @@
     <t>People = Men + Women</t>
   </si>
   <si>
-    <t>A number of claims to the Universal Credit element of the Claimant Count were supplied coded to incorrect locations for the periods December 2018 to November 2019. This has been corrected for December 2019 onwards, but previous periods remain affected. This particularly affects a number of claimants in Northern Ireland who have been incorrectly allocated to areas in Great Britain. The impact on Northern Ireland for December 2019 is an increase of less than 1,000 cases that had previously been distributed across Great Britain. At the UK level there should not be a net effect.</t>
-  </si>
-  <si>
-    <t>This will mean that the change in the number of claimants between November and December 2019 will be incorrect for affected areas. For further information contact: labour.supply@ons.gov.uk</t>
-  </si>
-  <si>
     <t>2019 Nov #</t>
   </si>
   <si>
     <t xml:space="preserve">2019 Dec </t>
   </si>
   <si>
-    <t>2020 Jan (r)</t>
-  </si>
-  <si>
-    <t>2020 Feb # (p)</t>
+    <t>(thousands)</t>
+  </si>
+  <si>
+    <t>2020 Jan</t>
+  </si>
+  <si>
+    <t>2020 Feb #</t>
+  </si>
+  <si>
+    <t>2020 Mar</t>
+  </si>
+  <si>
+    <t>4. A number of claims to the Universal Credit element of the Claimant Count were supplied coded to incorrect locations for the periods December 2018 to November 2019. This has been corrected for December 2019 onwards, but previous periods remain affected. This particularly affects a number of claimants in Northern Ireland who have been incorrectly allocated to areas in Great Britain. The impact on Northern Ireland for December 2019 is an increase of less than 1,000 cases that had previously been distributed across Great Britain. At the UK level there should not be a net effect. This will mean that the change in the number of claimants between November and December 2019 will be incorrect for affected areas. For further information contact: labour.supply@ons.gov.uk</t>
+  </si>
+  <si>
+    <t>5. During the Covid-19 outbreak the seasonal adjustment parameters for the Claimant Count will be under constant review and may result in revisions to the seasonally adjusted Claimant Count series for previously published periods. For this release we have revised the series for both April and May 2020.</t>
+  </si>
+  <si>
+    <t>2020 Apr (r)</t>
+  </si>
+  <si>
+    <t>2020 May (r) #</t>
+  </si>
+  <si>
+    <t>2020 Jun (p)</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1117,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1246,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1289,9 +1300,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1308,25 +1316,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1343,7 +1351,19 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1757,20 +1777,20 @@
   <sheetPr codeName="Sheet12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P1165"/>
+  <dimension ref="A1:P1167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C273" sqref="C273"/>
-      <selection pane="bottomLeft" activeCell="E291" sqref="E291"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="37" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1783,26 +1803,26 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50" t="s">
+    <row r="1" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="50"/>
-    </row>
-    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="55"/>
+    </row>
+    <row r="2" spans="1:13" ht="12.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1816,72 +1836,72 @@
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="56" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="51" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="51" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-    </row>
-    <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+    </row>
+    <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
       </c>
       <c r="B5" s="11">
         <v>65</v>
@@ -1920,9 +1940,9 @@
         <v>3.7763049224876188</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="11">
         <v>63.6</v>
@@ -1961,9 +1981,9 @@
         <v>3.5960298031182565</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="11">
         <v>61.699999999999996</v>
@@ -2002,9 +2022,9 @@
         <v>3.7256858003001625</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11">
         <v>61.4</v>
@@ -2043,9 +2063,9 @@
         <v>4.5086540937845045</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="11">
         <v>61</v>
@@ -2084,9 +2104,9 @@
         <v>4.6616955333804988</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="11">
         <v>61.5</v>
@@ -2125,9 +2145,9 @@
         <v>4.434057492666148</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="11">
         <v>60.6</v>
@@ -2166,9 +2186,9 @@
         <v>3.8964883354005275</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="11">
         <v>60.2</v>
@@ -2207,9 +2227,9 @@
         <v>3.6105346977801593</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="11">
         <v>59.9</v>
@@ -2248,9 +2268,9 @@
         <v>3.4506848382408228</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="11">
         <v>59.9</v>
@@ -2289,9 +2309,9 @@
         <v>3.5854035854035855</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="11">
         <v>59.3</v>
@@ -2330,9 +2350,9 @@
         <v>3.5680842132455037</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="11">
         <v>58.5</v>
@@ -2371,9 +2391,9 @@
         <v>3.4403905371647308</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="11">
         <v>57.9</v>
@@ -2412,9 +2432,9 @@
         <v>3.4536002277937761</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="11">
         <v>57.3</v>
@@ -2453,9 +2473,9 @@
         <v>3.3129904097646032</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="11">
         <v>57.599999999999994</v>
@@ -2494,9 +2514,9 @@
         <v>3.6273810467358856</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="11">
         <v>57.3</v>
@@ -2535,9 +2555,9 @@
         <v>4.4921754599173953</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="11">
         <v>57</v>
@@ -2576,9 +2596,9 @@
         <v>4.6371885081562505</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="11">
         <v>56</v>
@@ -2617,9 +2637,9 @@
         <v>4.0292491905395131</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="11">
         <v>56.1</v>
@@ -2658,9 +2678,9 @@
         <v>3.6570294634810763</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="11">
         <v>56.2</v>
@@ -2699,9 +2719,9 @@
         <v>3.3954775890259761</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="11">
         <v>56.199999999999996</v>
@@ -2740,9 +2760,9 @@
         <v>3.2927355508000669</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="11">
         <v>55.9</v>
@@ -2781,9 +2801,9 @@
         <v>3.4014311197950438</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="11">
         <v>55.599999999999994</v>
@@ -2822,9 +2842,9 @@
         <v>3.3760709623315206</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="11">
         <v>55</v>
@@ -2863,9 +2883,9 @@
         <v>3.3106532834199323</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="11">
         <v>55</v>
@@ -2904,9 +2924,9 @@
         <v>3.4247739920057869</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="11">
         <v>52.8</v>
@@ -2945,9 +2965,9 @@
         <v>3.0665617678335222</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="11">
         <v>51.2</v>
@@ -2986,9 +3006,9 @@
         <v>3.1599332566764935</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="11">
         <v>50</v>
@@ -3027,9 +3047,9 @@
         <v>3.8158391474376154</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="11">
         <v>48.9</v>
@@ -3068,9 +3088,9 @@
         <v>3.9458099544381717</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="11">
         <v>47.9</v>
@@ -3109,9 +3129,9 @@
         <v>3.5126699923054976</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="11">
         <v>46.5</v>
@@ -3150,9 +3170,9 @@
         <v>3.0602217284676412</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="11">
         <v>45.5</v>
@@ -3191,9 +3211,9 @@
         <v>2.8610868556574767</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="11">
         <v>44.6</v>
@@ -3232,9 +3252,9 @@
         <v>2.7014331370802966</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="11">
         <v>44.199999999999996</v>
@@ -3273,9 +3293,9 @@
         <v>2.7871909979204701</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="11">
         <v>43.699999999999996</v>
@@ -3314,9 +3334,9 @@
         <v>2.8111747228468964</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="11">
         <v>43.400000000000006</v>
@@ -3355,9 +3375,9 @@
         <v>2.7386592251281718</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="11">
         <v>42.400000000000006</v>
@@ -3396,9 +3416,9 @@
         <v>2.6853307073505883</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="11">
         <v>42.400000000000006</v>
@@ -3437,9 +3457,9 @@
         <v>2.6469567474683062</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="11">
         <v>41.5</v>
@@ -3478,9 +3498,9 @@
         <v>2.7064928175797882</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="11">
         <v>41.2</v>
@@ -3519,9 +3539,9 @@
         <v>3.2764589864195686</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="11">
         <v>40.700000000000003</v>
@@ -3560,9 +3580,9 @@
         <v>3.3927095119453057</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="11">
         <v>40.700000000000003</v>
@@ -3601,9 +3621,9 @@
         <v>3.1020831981309622</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="11">
         <v>41.3</v>
@@ -3642,9 +3662,9 @@
         <v>2.8182287595899629</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="11">
         <v>41.6</v>
@@ -3683,9 +3703,9 @@
         <v>2.659654013605826</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="11">
         <v>41.7</v>
@@ -3724,9 +3744,9 @@
         <v>2.5594866918542807</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="11">
         <v>40.799999999999997</v>
@@ -3765,9 +3785,9 @@
         <v>2.5771545298956551</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="11">
         <v>40.5</v>
@@ -3806,9 +3826,9 @@
         <v>2.5915088610390327</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="11">
         <v>40.299999999999997</v>
@@ -3847,9 +3867,9 @@
         <v>2.5172528018550211</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="11">
         <v>39.9</v>
@@ -3888,9 +3908,9 @@
         <v>2.5028984707116435</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="11">
         <v>40.1</v>
@@ -3929,9 +3949,9 @@
         <v>2.4217412907856235</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="11">
         <v>39.6</v>
@@ -3970,9 +3990,9 @@
         <v>2.5619720642632364</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="11">
         <v>39.299999999999997</v>
@@ -4011,9 +4031,9 @@
         <v>3.077899850935792</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="11">
         <v>39.299999999999997</v>
@@ -4052,9 +4072,9 @@
         <v>3.210401369182355</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="11">
         <v>38.700000000000003</v>
@@ -4093,9 +4113,9 @@
         <v>2.8984707116435708</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="11">
         <v>38.6</v>
@@ -4134,9 +4154,9 @@
         <v>2.5881963230828688</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="11">
         <v>38.400000000000006</v>
@@ -4175,9 +4195,9 @@
         <v>2.4098713631093687</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="11">
         <v>38.200000000000003</v>
@@ -4216,9 +4236,9 @@
         <v>2.2875835035609784</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="11">
         <v>38</v>
@@ -4257,9 +4277,9 @@
         <v>2.3656983200974921</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="11">
         <v>37.799999999999997</v>
@@ -4298,9 +4318,9 @@
         <v>2.3297602416768219</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" s="11">
         <v>37.5</v>
@@ -4339,9 +4359,9 @@
         <v>2.2530202847484739</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="11">
         <v>37.5</v>
@@ -4380,9 +4400,9 @@
         <v>2.2519394402846946</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="11">
         <v>36.799999999999997</v>
@@ -4421,9 +4441,9 @@
         <v>2.1606080830953225</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="11">
         <v>36.799999999999997</v>
@@ -4462,9 +4482,9 @@
         <v>2.3148986302998531</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="11">
         <v>36.4</v>
@@ -4503,9 +4523,9 @@
         <v>2.7426428268406107</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" s="11">
         <v>35.599999999999994</v>
@@ -4544,9 +4564,9 @@
         <v>2.7585852826813593</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="11">
         <v>35.5</v>
@@ -4585,9 +4605,9 @@
         <v>2.5421461788095039</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="11">
         <v>35.1</v>
@@ -4626,9 +4646,9 @@
         <v>2.2351863510961114</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" s="11">
         <v>35</v>
@@ -4667,9 +4687,9 @@
         <v>2.0998105820077226</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="11">
         <v>35.200000000000003</v>
@@ -4708,9 +4728,9 @@
         <v>2.0322578030215008</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="11">
         <v>35</v>
@@ -4749,9 +4769,9 @@
         <v>2.1426357492734693</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" s="11">
         <v>34.6</v>
@@ -4790,9 +4810,9 @@
         <v>2.0673997758815723</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" s="11">
         <v>34.5</v>
@@ -4831,9 +4851,9 @@
         <v>2.0350800971709684</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="11">
         <v>34</v>
@@ -4872,9 +4892,9 @@
         <v>2.0067341494493731</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="11">
         <v>34.700000000000003</v>
@@ -4913,9 +4933,9 @@
         <v>2.0062043186508389</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="11">
         <v>35</v>
@@ -4954,9 +4974,9 @@
         <v>2.1407813414785983</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" s="11">
         <v>34.599999999999994</v>
@@ -4995,9 +5015,9 @@
         <v>2.5312666399985164</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" s="11">
         <v>34.799999999999997</v>
@@ -5036,9 +5056,9 @@
         <v>2.6679629860204144</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" s="11">
         <v>34.9</v>
@@ -5077,9 +5097,9 @@
         <v>2.4292742112806276</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" s="11">
         <v>34.700000000000003</v>
@@ -5118,9 +5138,9 @@
         <v>2.1566762654346334</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" s="11">
         <v>34.1</v>
@@ -5159,9 +5179,9 @@
         <v>2.0067341494493731</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" s="11">
         <v>34</v>
@@ -5200,9 +5220,9 @@
         <v>1.9360017378450192</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="11">
         <v>33.5</v>
@@ -5241,9 +5261,9 @@
         <v>2.0172134149531731</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="11">
         <v>32.799999999999997</v>
@@ -5282,9 +5302,9 @@
         <v>1.9792811175639617</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="11">
         <v>32.200000000000003</v>
@@ -5323,9 +5343,9 @@
         <v>1.9191126458431436</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" s="11">
         <v>31.799999999999997</v>
@@ -5364,9 +5384,9 @@
         <v>1.8971380735624968</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" s="11">
         <v>31.2</v>
@@ -5405,9 +5425,9 @@
         <v>1.7977292941976666</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" s="11">
         <v>30.6</v>
@@ -5446,9 +5466,9 @@
         <v>1.8853659812692931</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" s="11">
         <v>29.9</v>
@@ -5487,9 +5507,9 @@
         <v>2.1511536650447338</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93" s="11">
         <v>29.9</v>
@@ -5528,9 +5548,9 @@
         <v>2.295557997174698</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94" s="11">
         <v>29.799999999999997</v>
@@ -5569,9 +5589,9 @@
         <v>2.1072045204834406</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" s="11">
         <v>29.6</v>
@@ -5610,9 +5630,9 @@
         <v>1.8626066028357664</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96" s="11">
         <v>29.5</v>
@@ -5651,9 +5671,9 @@
         <v>1.7074765866164392</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97" s="11">
         <v>29</v>
@@ -5692,9 +5712,9 @@
         <v>1.6507089415581016</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B98" s="11">
         <v>29.1</v>
@@ -5733,9 +5753,9 @@
         <v>1.721019345522824</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99" s="11">
         <v>28.9</v>
@@ -5774,9 +5794,9 @@
         <v>1.7136209522497492</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="11">
         <v>28.799999999999997</v>
@@ -5815,9 +5835,9 @@
         <v>1.6794352729879558</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101" s="11">
         <v>28.6</v>
@@ -5856,9 +5876,9 @@
         <v>1.6541786890557353</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102" s="11">
         <v>28.6</v>
@@ -5897,9 +5917,9 @@
         <v>1.6166764886715292</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="11">
         <v>28.700000000000003</v>
@@ -5938,9 +5958,9 @@
         <v>1.7212744625322403</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" s="11">
         <v>28.6</v>
@@ -5979,9 +5999,9 @@
         <v>2.0149141403704807</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B105" s="11">
         <v>28.4</v>
@@ -6020,9 +6040,9 @@
         <v>2.1386458899374197</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B106" s="11">
         <v>28.200000000000003</v>
@@ -6061,9 +6081,9 @@
         <v>1.9654214405437056</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B107" s="11">
         <v>28.200000000000003</v>
@@ -6102,9 +6122,9 @@
         <v>1.7641341201141902</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108" s="11">
         <v>28.700000000000003</v>
@@ -6143,9 +6163,9 @@
         <v>1.690660421402276</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B109" s="11">
         <v>28.3</v>
@@ -6184,9 +6204,9 @@
         <v>1.6176969567091946</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B110" s="11">
         <v>28.2</v>
@@ -6225,9 +6245,9 @@
         <v>1.7075666167702397</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B111" s="11">
         <v>28.2</v>
@@ -6266,9 +6286,9 @@
         <v>1.7388148842554092</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112" s="11">
         <v>28.1</v>
@@ -6307,9 +6327,9 @@
         <v>1.7163866922700861</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" s="11">
         <v>28</v>
@@ -6348,9 +6368,9 @@
         <v>1.699754549898947</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114" s="11">
         <v>28.1</v>
@@ -6389,9 +6409,9 @@
         <v>1.66649026515667</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115" s="11">
         <v>27.9</v>
@@ -6430,9 +6450,9 @@
         <v>1.6979905347989779</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" s="11">
         <v>28</v>
@@ -6471,9 +6491,9 @@
         <v>1.9827529723654436</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117" s="11">
         <v>28</v>
@@ -6512,9 +6532,9 @@
         <v>2.085317850320799</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" s="11">
         <v>27.9</v>
@@ -6553,9 +6573,9 @@
         <v>1.941928622909012</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119" s="11">
         <v>28</v>
@@ -6594,9 +6614,9 @@
         <v>1.7740951862547945</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120" s="11">
         <v>27.299999999999997</v>
@@ -6635,9 +6655,9 @@
         <v>1.6415420515999619</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121" s="11">
         <v>26.8</v>
@@ -6676,9 +6696,9 @@
         <v>1.5445212211016528</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B122" s="11">
         <v>26.1</v>
@@ -6717,9 +6737,9 @@
         <v>1.5523786605638852</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" s="11">
         <v>25.5</v>
@@ -6758,9 +6778,9 @@
         <v>1.5644107001664842</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124" s="11">
         <v>25.299999999999997</v>
@@ -6799,9 +6819,9 @@
         <v>1.522912441128949</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B125" s="11">
         <v>24.900000000000002</v>
@@ -6840,9 +6860,9 @@
         <v>1.4848519076921565</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126" s="11">
         <v>24.7</v>
@@ -6881,9 +6901,9 @@
         <v>1.4345137828241408</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127" s="11">
         <v>24.2</v>
@@ -6922,9 +6942,9 @@
         <v>1.4313216090520227</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B128" s="11">
         <v>23.7</v>
@@ -6963,9 +6983,9 @@
         <v>1.5847915019423151</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129" s="11">
         <v>23.5</v>
@@ -7004,9 +7024,9 @@
         <v>1.6793289559627351</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B130" s="11">
         <v>23.5</v>
@@ -7045,9 +7065,9 @@
         <v>1.523894648443447</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131" s="11">
         <v>23.7</v>
@@ -7086,9 +7106,9 @@
         <v>1.393752179272479</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B132" s="11">
         <v>23.599999999999998</v>
@@ -7127,9 +7147,9 @@
         <v>1.3166489050843961</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B133" s="11">
         <v>23.8</v>
@@ -7168,9 +7188,9 @@
         <v>1.2577164662145239</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B134" s="11">
         <v>23.6</v>
@@ -7209,9 +7229,9 @@
         <v>1.3093823649714653</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135" s="11">
         <v>23.6</v>
@@ -7250,9 +7270,9 @@
         <v>1.3205819910013441</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B136" s="11">
         <v>23.8</v>
@@ -7291,9 +7311,9 @@
         <v>1.28990475448472</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" s="11">
         <v>24.5</v>
@@ -7332,9 +7352,9 @@
         <v>1.3125474766755614</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138" s="11">
         <v>25</v>
@@ -7373,9 +7393,9 @@
         <v>1.3001304999902612</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B139" s="11">
         <v>25.9</v>
@@ -7414,9 +7434,9 @@
         <v>1.394109970588808</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140" s="11">
         <v>26.9</v>
@@ -7455,9 +7475,9 @@
         <v>1.6475623770475838</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141" s="11">
         <v>28</v>
@@ -7496,9 +7516,9 @@
         <v>1.7804970686196218</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142" s="11">
         <v>29.4</v>
@@ -7537,9 +7557,9 @@
         <v>1.732533452796011</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143" s="11">
         <v>31.200000000000003</v>
@@ -7578,9 +7598,9 @@
         <v>1.6882218889386649</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B144" s="11">
         <v>35</v>
@@ -7619,9 +7639,9 @@
         <v>1.7512806528895035</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B145" s="11">
         <v>37</v>
@@ -7660,9 +7680,9 @@
         <v>1.7583412866909489</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146" s="11">
         <v>38.799999999999997</v>
@@ -7701,9 +7721,9 @@
         <v>1.9680251199610816</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B147" s="11">
         <v>42.3</v>
@@ -7742,9 +7762,9 @@
         <v>2.1697415523565935</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B148" s="11">
         <v>44.4</v>
@@ -7783,9 +7803,9 @@
         <v>2.2564722474060646</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B149" s="11">
         <v>46.5</v>
@@ -7824,9 +7844,9 @@
         <v>2.3567162235538945</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B150" s="11">
         <v>48.400000000000006</v>
@@ -7865,9 +7885,9 @@
         <v>2.4245283250656624</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B151" s="11">
         <v>49.800000000000004</v>
@@ -7906,9 +7926,9 @@
         <v>2.5532730395300329</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B152" s="11">
         <v>51</v>
@@ -7947,9 +7967,9 @@
         <v>2.874643433651018</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153" s="11">
         <v>52.2</v>
@@ -7988,9 +8008,9 @@
         <v>3.1041235163031597</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154" s="11">
         <v>53</v>
@@ -8029,9 +8049,9 @@
         <v>3.0404882471308845</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B155" s="11">
         <v>53.400000000000006</v>
@@ -8070,9 +8090,9 @@
         <v>2.9336104784438595</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B156" s="11">
         <v>53.9</v>
@@ -8111,9 +8131,9 @@
         <v>2.8702209052915553</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157" s="11">
         <v>54.400000000000006</v>
@@ -8152,9 +8172,9 @@
         <v>2.8368062465756116</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B158" s="11">
         <v>55.2</v>
@@ -8193,9 +8213,9 @@
         <v>2.938303974172535</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159" s="11">
         <v>55.400000000000006</v>
@@ -8234,9 +8254,9 @@
         <v>3.0151941716275172</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160" s="11">
         <v>55.8</v>
@@ -8275,9 +8295,9 @@
         <v>3.0366852206056181</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161" s="11">
         <v>55.7</v>
@@ -8316,9 +8336,9 @@
         <v>3.0488634816932083</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162" s="11">
         <v>55.599999999999994</v>
@@ -8357,9 +8377,9 @@
         <v>3.0610417427807985</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B163" s="11">
         <v>56.2</v>
@@ -8398,9 +8418,9 @@
         <v>3.173989144632372</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B164" s="11">
         <v>56.699999999999996</v>
@@ -8439,9 +8459,9 @@
         <v>3.5044737200289409</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B165" s="11">
         <v>57.6</v>
@@ -8480,9 +8500,9 @@
         <v>3.7678584647272189</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166" s="11">
         <v>57.9</v>
@@ -8521,9 +8541,9 @@
         <v>3.6924010038707769</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B167" s="11">
         <v>58.2</v>
@@ -8562,9 +8582,9 @@
         <v>3.557723763608013</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168" s="11">
         <v>58.199999999999996</v>
@@ -8603,9 +8623,9 @@
         <v>3.4581485700094796</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169" s="11">
         <v>58.2</v>
@@ -8644,9 +8664,9 @@
         <v>3.3963021068391686</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170" s="11">
         <v>58.5</v>
@@ -8685,9 +8705,9 @@
         <v>3.6349428174881884</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171" s="11">
         <v>58.900000000000006</v>
@@ -8726,9 +8746,9 @@
         <v>3.7730150321329523</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B172" s="11">
         <v>59</v>
@@ -8767,9 +8787,9 @@
         <v>3.8269494909785631</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A173" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173" s="11">
         <v>59.099999999999994</v>
@@ -8808,9 +8828,9 @@
         <v>3.8106492989718896</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A174" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174" s="11">
         <v>59.3</v>
@@ -8849,9 +8869,9 @@
         <v>3.7991432810848256</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A175" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B175" s="11">
         <v>59.7</v>
@@ -8890,9 +8910,9 @@
         <v>3.9225932646647794</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A176" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B176" s="11">
         <v>60.400000000000006</v>
@@ -8931,9 +8951,9 @@
         <v>4.2941417589345425</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A177" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B177" s="11">
         <v>60.400000000000006</v>
@@ -8972,9 +8992,9 @@
         <v>4.4621775618268682</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A178" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B178" s="11">
         <v>60.699999999999996</v>
@@ -9013,9 +9033,9 @@
         <v>4.3955385415642905</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A179" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B179" s="11">
         <v>60.7</v>
@@ -9054,9 +9074,9 @@
         <v>4.2231879819643172</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A180" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B180" s="11">
         <v>60.7</v>
@@ -9095,9 +9115,9 @@
         <v>4.1294618779259444</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A181" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B181" s="11">
         <v>60.5</v>
@@ -9136,9 +9156,9 @@
         <v>4.0381328609473766</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A182" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B182" s="11">
         <v>61.099999999999994</v>
@@ -9177,9 +9197,9 @@
         <v>4.3258972819108159</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A183" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B183" s="11">
         <v>61.3</v>
@@ -9218,9 +9238,9 @@
         <v>4.3588541742955771</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A184" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B184" s="11">
         <v>61.6</v>
@@ -9259,9 +9279,9 @@
         <v>4.3495774194020891</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A185" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B185" s="11">
         <v>62.2</v>
@@ -9300,9 +9320,9 @@
         <v>4.3381035383496167</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A186" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B186" s="11">
         <v>62.4</v>
@@ -9341,9 +9361,9 @@
         <v>4.2880578869505355</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A187" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B187" s="11">
         <v>63</v>
@@ -9382,9 +9402,9 @@
         <v>4.3788724348552091</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A188" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B188" s="11">
         <v>63.7</v>
@@ -9423,9 +9443,9 @@
         <v>4.7223564910430493</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A189" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B189" s="11">
         <v>63.5</v>
@@ -9464,9 +9484,9 @@
         <v>4.8639490657331326</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A190" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B190" s="11">
         <v>63.7</v>
@@ -9505,9 +9525,9 @@
         <v>4.7335862469667447</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A191" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191" s="11">
         <v>64</v>
@@ -9546,9 +9566,9 @@
         <v>4.5819845419968459</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A192" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B192" s="11">
         <v>64.400000000000006</v>
@@ -9587,9 +9607,9 @@
         <v>4.4899493684482916</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A193" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B193" s="11">
         <v>64.599999999999994</v>
@@ -9628,9 +9648,9 @@
         <v>4.4047496985054657</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B194" s="11">
         <v>64.756</v>
@@ -9671,9 +9691,9 @@
       <c r="N194" s="24"/>
       <c r="O194" s="24"/>
     </row>
-    <row r="195" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B195" s="11">
         <v>64.757999999999996</v>
@@ -9714,9 +9734,9 @@
       <c r="N195" s="24"/>
       <c r="O195" s="24"/>
     </row>
-    <row r="196" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B196" s="11">
         <v>64.549000000000007</v>
@@ -9757,9 +9777,9 @@
       <c r="N196" s="24"/>
       <c r="O196" s="24"/>
     </row>
-    <row r="197" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B197" s="11">
         <v>64.227999999999994</v>
@@ -9800,9 +9820,9 @@
       <c r="N197" s="24"/>
       <c r="O197" s="24"/>
     </row>
-    <row r="198" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B198" s="11">
         <v>63.772000000000006</v>
@@ -9843,9 +9863,9 @@
       <c r="N198" s="24"/>
       <c r="O198" s="24"/>
     </row>
-    <row r="199" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B199" s="11">
         <v>63.045000000000002</v>
@@ -9886,9 +9906,9 @@
       <c r="N199" s="24"/>
       <c r="O199" s="24"/>
     </row>
-    <row r="200" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B200" s="11">
         <v>62.54</v>
@@ -9929,9 +9949,9 @@
       <c r="N200" s="24"/>
       <c r="O200" s="24"/>
     </row>
-    <row r="201" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B201" s="11">
         <v>62.213000000000001</v>
@@ -9972,9 +9992,9 @@
       <c r="N201" s="24"/>
       <c r="O201" s="24"/>
     </row>
-    <row r="202" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B202" s="11">
         <v>61.482999999999997</v>
@@ -10015,9 +10035,9 @@
       <c r="N202" s="24"/>
       <c r="O202" s="24"/>
     </row>
-    <row r="203" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B203" s="11">
         <v>60.519999999999996</v>
@@ -10058,9 +10078,9 @@
       <c r="N203" s="24"/>
       <c r="O203" s="24"/>
     </row>
-    <row r="204" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B204" s="11">
         <v>59.716000000000001</v>
@@ -10101,9 +10121,9 @@
       <c r="N204" s="24"/>
       <c r="O204" s="24"/>
     </row>
-    <row r="205" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B205" s="11">
         <v>59.033999999999999</v>
@@ -10144,9 +10164,9 @@
       <c r="N205" s="24"/>
       <c r="O205" s="24"/>
     </row>
-    <row r="206" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B206" s="11">
         <v>58.689000000000007</v>
@@ -10187,9 +10207,9 @@
       <c r="N206" s="24"/>
       <c r="O206" s="24"/>
     </row>
-    <row r="207" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B207" s="11">
         <v>57.960999999999999</v>
@@ -10230,9 +10250,9 @@
       <c r="N207" s="24"/>
       <c r="O207" s="24"/>
     </row>
-    <row r="208" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B208" s="11">
         <v>57.070999999999998</v>
@@ -10273,9 +10293,9 @@
       <c r="N208" s="24"/>
       <c r="O208" s="24"/>
     </row>
-    <row r="209" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B209" s="11">
         <v>56.186999999999998</v>
@@ -10316,9 +10336,9 @@
       <c r="N209" s="24"/>
       <c r="O209" s="24"/>
     </row>
-    <row r="210" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B210" s="11">
         <v>55.34</v>
@@ -10359,9 +10379,9 @@
       <c r="N210" s="24"/>
       <c r="O210" s="24"/>
     </row>
-    <row r="211" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B211" s="11">
         <v>54.042999999999992</v>
@@ -10402,9 +10422,9 @@
       <c r="N211" s="24"/>
       <c r="O211" s="24"/>
     </row>
-    <row r="212" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B212" s="11">
         <v>52.414999999999999</v>
@@ -10445,9 +10465,9 @@
       <c r="N212" s="24"/>
       <c r="O212" s="24"/>
     </row>
-    <row r="213" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B213" s="11">
         <v>52.265999999999998</v>
@@ -10488,9 +10508,9 @@
       <c r="N213" s="24"/>
       <c r="O213" s="24"/>
     </row>
-    <row r="214" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B214" s="11">
         <v>51.899000000000001</v>
@@ -10531,9 +10551,9 @@
       <c r="N214" s="24"/>
       <c r="O214" s="24"/>
     </row>
-    <row r="215" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B215" s="11">
         <v>51.674000000000007</v>
@@ -10574,9 +10594,9 @@
       <c r="N215" s="24"/>
       <c r="O215" s="24"/>
     </row>
-    <row r="216" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B216" s="11">
         <v>50.764000000000003</v>
@@ -10617,9 +10637,9 @@
       <c r="N216" s="24"/>
       <c r="O216" s="24"/>
     </row>
-    <row r="217" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B217" s="11">
         <v>49.833000000000006</v>
@@ -10661,9 +10681,9 @@
       <c r="O217" s="24"/>
       <c r="P217" s="26"/>
     </row>
-    <row r="218" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B218" s="11">
         <v>48.673999999999999</v>
@@ -10705,9 +10725,9 @@
       <c r="O218" s="24"/>
       <c r="P218" s="26"/>
     </row>
-    <row r="219" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B219" s="11">
         <v>46.622</v>
@@ -10749,9 +10769,9 @@
       <c r="O219" s="24"/>
       <c r="P219" s="26"/>
     </row>
-    <row r="220" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B220" s="11">
         <v>45.302999999999997</v>
@@ -10793,9 +10813,9 @@
       <c r="O220" s="24"/>
       <c r="P220" s="26"/>
     </row>
-    <row r="221" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B221" s="11">
         <v>44.27</v>
@@ -10837,9 +10857,9 @@
       <c r="O221" s="24"/>
       <c r="P221" s="26"/>
     </row>
-    <row r="222" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B222" s="11">
         <v>43.433999999999997</v>
@@ -10881,9 +10901,9 @@
       <c r="O222" s="24"/>
       <c r="P222" s="26"/>
     </row>
-    <row r="223" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B223" s="11">
         <v>43.44</v>
@@ -10925,9 +10945,9 @@
       <c r="O223" s="24"/>
       <c r="P223" s="26"/>
     </row>
-    <row r="224" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B224" s="11">
         <v>42.703000000000003</v>
@@ -10969,9 +10989,9 @@
       <c r="O224" s="24"/>
       <c r="P224" s="26"/>
     </row>
-    <row r="225" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B225" s="11">
         <v>41.795000000000002</v>
@@ -11013,9 +11033,9 @@
       <c r="O225" s="24"/>
       <c r="P225" s="26"/>
     </row>
-    <row r="226" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B226" s="11">
         <v>40.730000000000004</v>
@@ -11057,9 +11077,9 @@
       <c r="O226" s="24"/>
       <c r="P226" s="26"/>
     </row>
-    <row r="227" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B227" s="11">
         <v>40.049999999999997</v>
@@ -11101,9 +11121,9 @@
       <c r="O227" s="24"/>
       <c r="P227" s="26"/>
     </row>
-    <row r="228" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B228" s="11">
         <v>39.457000000000001</v>
@@ -11145,9 +11165,9 @@
       <c r="O228" s="24"/>
       <c r="P228" s="26"/>
     </row>
-    <row r="229" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B229" s="11">
         <v>39.030999999999999</v>
@@ -11189,9 +11209,9 @@
       <c r="O229" s="24"/>
       <c r="P229" s="26"/>
     </row>
-    <row r="230" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B230" s="11">
         <v>38.718000000000004</v>
@@ -11233,9 +11253,9 @@
       <c r="O230" s="24"/>
       <c r="P230" s="26"/>
     </row>
-    <row r="231" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B231" s="11">
         <v>38.518999999999998</v>
@@ -11277,9 +11297,9 @@
       <c r="O231" s="24"/>
       <c r="P231" s="26"/>
     </row>
-    <row r="232" spans="1:16" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B232" s="11">
         <v>38.377000000000002</v>
@@ -11321,9 +11341,9 @@
       <c r="O232" s="24"/>
       <c r="P232" s="26"/>
     </row>
-    <row r="233" spans="1:16" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B233" s="11">
         <v>37.600999999999999</v>
@@ -11365,9 +11385,9 @@
       <c r="O233" s="24"/>
       <c r="P233" s="26"/>
     </row>
-    <row r="234" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B234" s="11">
         <v>36.903999999999996</v>
@@ -11409,9 +11429,9 @@
       <c r="O234" s="24"/>
       <c r="P234" s="26"/>
     </row>
-    <row r="235" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B235" s="11">
         <v>36.564999999999998</v>
@@ -11453,9 +11473,9 @@
       <c r="O235" s="24"/>
       <c r="P235" s="26"/>
     </row>
-    <row r="236" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B236" s="11">
         <v>36.137999999999998</v>
@@ -11497,9 +11517,9 @@
       <c r="O236" s="24"/>
       <c r="P236" s="26"/>
     </row>
-    <row r="237" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B237" s="11">
         <v>35.256</v>
@@ -11541,9 +11561,9 @@
       <c r="O237" s="24"/>
       <c r="P237" s="26"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A238" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B238" s="11">
         <v>34.777999999999999</v>
@@ -11585,9 +11605,9 @@
       <c r="O238" s="24"/>
       <c r="P238" s="26"/>
     </row>
-    <row r="239" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B239" s="11">
         <v>33.944000000000003</v>
@@ -11629,9 +11649,9 @@
       <c r="O239" s="24"/>
       <c r="P239" s="26"/>
     </row>
-    <row r="240" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B240" s="11">
         <v>33.460999999999999</v>
@@ -11673,9 +11693,9 @@
       <c r="O240" s="24"/>
       <c r="P240" s="26"/>
     </row>
-    <row r="241" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B241" s="11">
         <v>32.688000000000002</v>
@@ -11717,9 +11737,9 @@
       <c r="O241" s="24"/>
       <c r="P241" s="26"/>
     </row>
-    <row r="242" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B242" s="11">
         <v>32.091000000000001</v>
@@ -11761,9 +11781,9 @@
       <c r="O242" s="24"/>
       <c r="P242" s="26"/>
     </row>
-    <row r="243" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B243" s="11">
         <v>31.76</v>
@@ -11805,9 +11825,9 @@
       <c r="O243" s="24"/>
       <c r="P243" s="26"/>
     </row>
-    <row r="244" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B244" s="11">
         <v>31.582999999999998</v>
@@ -11849,9 +11869,9 @@
       <c r="O244" s="24"/>
       <c r="P244" s="26"/>
     </row>
-    <row r="245" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B245" s="11">
         <v>31.323999999999998</v>
@@ -11893,9 +11913,9 @@
       <c r="O245" s="24"/>
       <c r="P245" s="26"/>
     </row>
-    <row r="246" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B246" s="11">
         <v>30.948</v>
@@ -11937,9 +11957,9 @@
       <c r="O246" s="24"/>
       <c r="P246" s="26"/>
     </row>
-    <row r="247" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B247" s="11">
         <v>30.591999999999999</v>
@@ -11981,9 +12001,9 @@
       <c r="O247" s="24"/>
       <c r="P247" s="26"/>
     </row>
-    <row r="248" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B248" s="11">
         <v>30.253999999999998</v>
@@ -12025,9 +12045,9 @@
       <c r="O248" s="24"/>
       <c r="P248" s="26"/>
     </row>
-    <row r="249" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B249" s="11">
         <v>30.035</v>
@@ -12069,9 +12089,9 @@
       <c r="O249" s="24"/>
       <c r="P249" s="26"/>
     </row>
-    <row r="250" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B250" s="11">
         <v>29.341000000000001</v>
@@ -12113,9 +12133,9 @@
       <c r="O250" s="24"/>
       <c r="P250" s="26"/>
     </row>
-    <row r="251" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B251" s="11">
         <v>29.292999999999999</v>
@@ -12157,9 +12177,9 @@
       <c r="O251" s="24"/>
       <c r="P251" s="26"/>
     </row>
-    <row r="252" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B252" s="11">
         <v>28.964999999999996</v>
@@ -12201,9 +12221,9 @@
       <c r="O252" s="24"/>
       <c r="P252" s="26"/>
     </row>
-    <row r="253" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B253" s="11">
         <v>29.197000000000003</v>
@@ -12245,9 +12265,9 @@
       <c r="O253" s="24"/>
       <c r="P253" s="26"/>
     </row>
-    <row r="254" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B254" s="11">
         <v>28.759999999999998</v>
@@ -12289,9 +12309,9 @@
       <c r="O254" s="24"/>
       <c r="P254" s="26"/>
     </row>
-    <row r="255" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B255" s="11">
         <v>28.728000000000002</v>
@@ -12333,9 +12353,9 @@
       <c r="O255" s="24"/>
       <c r="P255" s="26"/>
     </row>
-    <row r="256" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B256" s="11">
         <v>28.68</v>
@@ -12377,9 +12397,9 @@
       <c r="O256" s="24"/>
       <c r="P256" s="26"/>
     </row>
-    <row r="257" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B257" s="11">
         <v>28.821000000000002</v>
@@ -12421,9 +12441,9 @@
       <c r="O257" s="24"/>
       <c r="P257" s="26"/>
     </row>
-    <row r="258" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B258" s="11">
         <v>28.927</v>
@@ -12465,9 +12485,9 @@
       <c r="O258" s="24"/>
       <c r="P258" s="26"/>
     </row>
-    <row r="259" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B259" s="11">
         <v>28.76</v>
@@ -12509,9 +12529,9 @@
       <c r="O259" s="24"/>
       <c r="P259" s="26"/>
     </row>
-    <row r="260" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B260" s="11">
         <v>28.414000000000001</v>
@@ -12553,9 +12573,9 @@
       <c r="O260" s="24"/>
       <c r="P260" s="26"/>
     </row>
-    <row r="261" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B261" s="11">
         <v>28.362000000000002</v>
@@ -12597,9 +12617,9 @@
       <c r="O261" s="24"/>
       <c r="P261" s="26"/>
     </row>
-    <row r="262" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B262" s="11">
         <v>29.069000000000003</v>
@@ -12641,9 +12661,9 @@
       <c r="O262" s="24"/>
       <c r="P262" s="26"/>
     </row>
-    <row r="263" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B263" s="11">
         <v>29.315999999999999</v>
@@ -12685,9 +12705,9 @@
       <c r="O263" s="24"/>
       <c r="P263" s="26"/>
     </row>
-    <row r="264" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B264" s="11">
         <v>29.504000000000001</v>
@@ -12729,9 +12749,9 @@
       <c r="O264" s="24"/>
       <c r="P264" s="26"/>
     </row>
-    <row r="265" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B265" s="11">
         <v>29.375</v>
@@ -12773,9 +12793,9 @@
       <c r="O265" s="24"/>
       <c r="P265" s="26"/>
     </row>
-    <row r="266" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B266" s="11">
         <v>29.253</v>
@@ -12817,9 +12837,9 @@
       <c r="O266" s="24"/>
       <c r="P266" s="26"/>
     </row>
-    <row r="267" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B267" s="11">
         <v>29.036999999999999</v>
@@ -12861,9 +12881,9 @@
       <c r="O267" s="24"/>
       <c r="P267" s="26"/>
     </row>
-    <row r="268" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B268" s="11">
         <v>29.39</v>
@@ -12905,9 +12925,9 @@
       <c r="O268" s="24"/>
       <c r="P268" s="26"/>
     </row>
-    <row r="269" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B269" s="11">
         <v>29.604999999999997</v>
@@ -12949,9 +12969,9 @@
       <c r="O269" s="24"/>
       <c r="P269" s="26"/>
     </row>
-    <row r="270" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B270" s="11">
         <v>29.860999999999997</v>
@@ -12993,9 +13013,9 @@
       <c r="O270" s="24"/>
       <c r="P270" s="26"/>
     </row>
-    <row r="271" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B271" s="11">
         <v>30.024000000000001</v>
@@ -13037,9 +13057,9 @@
       <c r="O271" s="24"/>
       <c r="P271" s="26"/>
     </row>
-    <row r="272" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B272" s="11">
         <v>29.784000000000002</v>
@@ -13081,9 +13101,9 @@
       <c r="O272" s="24"/>
       <c r="P272" s="26"/>
     </row>
-    <row r="273" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B273" s="11">
         <v>29.258000000000003</v>
@@ -13125,9 +13145,9 @@
       <c r="O273" s="24"/>
       <c r="P273" s="26"/>
     </row>
-    <row r="274" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B274" s="11">
         <v>29.658999999999999</v>
@@ -13169,9 +13189,9 @@
       <c r="O274" s="24"/>
       <c r="P274" s="26"/>
     </row>
-    <row r="275" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B275" s="11">
         <v>30.655000000000001</v>
@@ -13213,579 +13233,761 @@
       <c r="O275" s="24"/>
       <c r="P275" s="26"/>
     </row>
-    <row r="276" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B276" s="16">
         <v>30.096</v>
       </c>
-      <c r="C276" s="29">
+      <c r="C276" s="28">
         <v>3.2397833685522701</v>
       </c>
       <c r="D276" s="16">
         <v>29.780999999999999</v>
       </c>
-      <c r="E276" s="29">
+      <c r="E276" s="28">
         <v>3.2058741526732839</v>
       </c>
       <c r="F276" s="16">
         <v>18.852</v>
       </c>
-      <c r="G276" s="29">
+      <c r="G276" s="28">
         <v>3.8250445869694456</v>
       </c>
       <c r="H276" s="16">
         <v>18.681000000000001</v>
       </c>
-      <c r="I276" s="29">
+      <c r="I276" s="28">
         <v>3.7903489247388187</v>
       </c>
       <c r="J276" s="16">
         <v>11.244</v>
       </c>
-      <c r="K276" s="29">
+      <c r="K276" s="28">
         <v>2.5783432012364305</v>
       </c>
       <c r="L276" s="16">
         <v>11.1</v>
       </c>
-      <c r="M276" s="29">
+      <c r="M276" s="28">
         <v>2.5453227973785468</v>
       </c>
-      <c r="N276" s="54"/>
+      <c r="N276" s="38"/>
       <c r="O276" s="24"/>
       <c r="P276" s="26"/>
     </row>
-    <row r="277" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B277" s="16">
         <v>30.249000000000002</v>
       </c>
-      <c r="C277" s="29">
+      <c r="C277" s="28">
         <v>3.2562535591220638</v>
       </c>
       <c r="D277" s="16">
         <v>29.997</v>
       </c>
-      <c r="E277" s="29">
+      <c r="E277" s="28">
         <v>3.2291261864188745</v>
       </c>
       <c r="F277" s="16">
         <v>18.89</v>
       </c>
-      <c r="G277" s="29">
+      <c r="G277" s="28">
         <v>3.8327547341318069</v>
       </c>
       <c r="H277" s="16">
         <v>18.933</v>
       </c>
-      <c r="I277" s="29">
+      <c r="I277" s="28">
         <v>3.8414793743418474</v>
       </c>
       <c r="J277" s="16">
         <v>11.359</v>
       </c>
-      <c r="K277" s="29">
+      <c r="K277" s="28">
         <v>2.6047136626507128</v>
       </c>
       <c r="L277" s="16">
         <v>11.064</v>
       </c>
-      <c r="M277" s="29">
+      <c r="M277" s="28">
         <v>2.5370676964140757</v>
       </c>
-      <c r="N277" s="54"/>
+      <c r="N277" s="38"/>
       <c r="O277" s="24"/>
       <c r="P277" s="26"/>
     </row>
-    <row r="278" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B278" s="16">
         <v>29.613999999999997</v>
       </c>
-      <c r="C278" s="29">
+      <c r="C278" s="28">
         <v>3.1878968858422021</v>
       </c>
       <c r="D278" s="16">
         <v>29.73</v>
       </c>
-      <c r="E278" s="29">
+      <c r="E278" s="28">
         <v>3.2003840891500199</v>
       </c>
       <c r="F278" s="16">
         <v>18.491</v>
       </c>
-      <c r="G278" s="29">
+      <c r="G278" s="28">
         <v>3.7517981889270113</v>
       </c>
       <c r="H278" s="16">
         <v>18.852</v>
       </c>
-      <c r="I278" s="29">
+      <c r="I278" s="28">
         <v>3.8250445869694456</v>
       </c>
       <c r="J278" s="16">
         <v>11.122999999999999</v>
       </c>
-      <c r="K278" s="29">
+      <c r="K278" s="28">
         <v>2.5505968896614033</v>
       </c>
       <c r="L278" s="16">
         <v>10.878</v>
       </c>
-      <c r="M278" s="29">
+      <c r="M278" s="28">
         <v>2.4944163414309757</v>
       </c>
-      <c r="N278" s="54"/>
+      <c r="N278" s="38"/>
       <c r="O278" s="25"/>
     </row>
-    <row r="279" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="40" t="s">
+    <row r="279" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B279" s="16">
+        <v>29.641999999999999</v>
+      </c>
+      <c r="C279" s="28">
+        <v>3.1909110383647792</v>
+      </c>
+      <c r="D279" s="16">
+        <v>29.933999999999997</v>
+      </c>
+      <c r="E279" s="28">
+        <v>3.2223443432430767</v>
+      </c>
+      <c r="F279" s="16">
+        <v>18.545999999999999</v>
+      </c>
+      <c r="G279" s="28">
+        <v>3.7629576124514821</v>
+      </c>
+      <c r="H279" s="16">
+        <v>18.936</v>
+      </c>
+      <c r="I279" s="28">
+        <v>3.8420880701704552</v>
+      </c>
+      <c r="J279" s="16">
+        <v>11.096</v>
+      </c>
+      <c r="K279" s="28">
+        <v>2.5444055639380498</v>
+      </c>
+      <c r="L279" s="16">
+        <v>10.997999999999999</v>
+      </c>
+      <c r="M279" s="28">
+        <v>2.5219333446458791</v>
+      </c>
+      <c r="N279" s="38"/>
+      <c r="O279" s="25"/>
+    </row>
+    <row r="280" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="B280" s="49">
+        <v>29.774000000000001</v>
+      </c>
+      <c r="C280" s="50">
+        <v>3.2051206145426399</v>
+      </c>
+      <c r="D280" s="49">
+        <v>30.225999999999999</v>
+      </c>
+      <c r="E280" s="50">
+        <v>3.2537776481213756</v>
+      </c>
+      <c r="F280" s="49">
+        <v>18.635999999999999</v>
+      </c>
+      <c r="G280" s="50">
+        <v>3.7812184873097063</v>
+      </c>
+      <c r="H280" s="49">
+        <v>19.138000000000002</v>
+      </c>
+      <c r="I280" s="50">
+        <v>3.8830735892966928</v>
+      </c>
+      <c r="J280" s="49">
+        <v>11.138</v>
+      </c>
+      <c r="K280" s="50">
+        <v>2.5540365150632662</v>
+      </c>
+      <c r="L280" s="49">
+        <v>11.087999999999999</v>
+      </c>
+      <c r="M280" s="50">
+        <v>2.5425710970570568</v>
+      </c>
+      <c r="N280" s="51"/>
+      <c r="O280" s="51"/>
+      <c r="P280" s="52"/>
+    </row>
+    <row r="281" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B281" s="49">
+        <v>56.313999999999993</v>
+      </c>
+      <c r="C281" s="50">
+        <v>6.062106612727689</v>
+      </c>
+      <c r="D281" s="49">
+        <v>56.527999999999999</v>
+      </c>
+      <c r="E281" s="50">
+        <v>6.0851433498645244</v>
+      </c>
+      <c r="F281" s="49">
+        <v>36.244999999999997</v>
+      </c>
+      <c r="G281" s="50">
+        <v>7.354060102626117</v>
+      </c>
+      <c r="H281" s="49">
+        <v>36.509</v>
+      </c>
+      <c r="I281" s="50">
+        <v>7.4076253355435755</v>
+      </c>
+      <c r="J281" s="49">
+        <v>20.068999999999999</v>
+      </c>
+      <c r="K281" s="50">
+        <v>4.6019894793324374</v>
+      </c>
+      <c r="L281" s="49">
+        <v>20.018999999999998</v>
+      </c>
+      <c r="M281" s="50">
+        <v>4.5905240613262279</v>
+      </c>
+      <c r="N281" s="42"/>
+      <c r="O281" s="42"/>
+      <c r="P281" s="44"/>
+    </row>
+    <row r="282" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="B282" s="49">
+        <v>64.350999999999999</v>
+      </c>
+      <c r="C282" s="50">
+        <v>6.9272760350115341</v>
+      </c>
+      <c r="D282" s="49">
+        <v>63.981999999999999</v>
+      </c>
+      <c r="E282" s="50">
+        <v>6.8875538106961507</v>
+      </c>
+      <c r="F282" s="49">
+        <v>41.999000000000002</v>
+      </c>
+      <c r="G282" s="50">
+        <v>8.5215387018952757</v>
+      </c>
+      <c r="H282" s="49">
+        <v>41.902000000000001</v>
+      </c>
+      <c r="I282" s="50">
+        <v>8.5018575367703004</v>
+      </c>
+      <c r="J282" s="49">
+        <v>22.352</v>
+      </c>
+      <c r="K282" s="50">
+        <v>5.1255004654959713</v>
+      </c>
+      <c r="L282" s="49">
+        <v>22.08</v>
+      </c>
+      <c r="M282" s="50">
+        <v>5.0631285915421902</v>
+      </c>
+      <c r="N282" s="42"/>
+      <c r="O282" s="42"/>
+      <c r="P282" s="44"/>
+    </row>
+    <row r="283" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="B283" s="49">
+        <v>63.112000000000002</v>
+      </c>
+      <c r="C283" s="50">
+        <v>6.7938997858875219</v>
+      </c>
+      <c r="D283" s="49">
+        <v>62.605999999999995</v>
+      </c>
+      <c r="E283" s="50">
+        <v>6.739429743872388</v>
+      </c>
+      <c r="F283" s="49">
+        <v>40.825000000000003</v>
+      </c>
+      <c r="G283" s="50">
+        <v>8.2833357343002127</v>
+      </c>
+      <c r="H283" s="49">
+        <v>40.463999999999999</v>
+      </c>
+      <c r="I283" s="50">
+        <v>8.2100893362577789</v>
+      </c>
+      <c r="J283" s="49">
+        <v>22.286999999999999</v>
+      </c>
+      <c r="K283" s="50">
+        <v>5.110595422087898</v>
+      </c>
+      <c r="L283" s="49">
+        <v>22.141999999999999</v>
+      </c>
+      <c r="M283" s="50">
+        <v>5.0773457098698902</v>
+      </c>
+      <c r="N283" s="51"/>
+      <c r="O283" s="51"/>
+      <c r="P283" s="52"/>
+    </row>
+    <row r="284" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="43"/>
+      <c r="B284" s="43"/>
+      <c r="C284" s="43"/>
+      <c r="D284" s="43"/>
+      <c r="E284" s="43"/>
+      <c r="F284" s="43"/>
+      <c r="G284" s="43"/>
+      <c r="H284" s="43"/>
+      <c r="I284" s="43"/>
+      <c r="J284" s="43"/>
+      <c r="K284" s="43"/>
+      <c r="L284" s="43"/>
+      <c r="M284" s="43"/>
+      <c r="N284" s="43"/>
+      <c r="O284" s="43"/>
+      <c r="P284" s="39"/>
+    </row>
+    <row r="285" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="B285" s="49">
+        <v>-1.2389999999999972</v>
+      </c>
+      <c r="C285" s="49">
+        <v>-0.13337624912401225</v>
+      </c>
+      <c r="D285" s="49">
+        <v>-1.3760000000000048</v>
+      </c>
+      <c r="E285" s="49">
+        <v>-0.14812406682376267</v>
+      </c>
+      <c r="F285" s="49">
+        <v>-1.1739999999999995</v>
+      </c>
+      <c r="G285" s="49">
+        <v>-0.23820296759506299</v>
+      </c>
+      <c r="H285" s="49">
+        <v>-1.4380000000000024</v>
+      </c>
+      <c r="I285" s="49">
+        <v>-0.2917682005125215</v>
+      </c>
+      <c r="J285" s="49">
+        <v>-6.5000000000001279E-2</v>
+      </c>
+      <c r="K285" s="49">
+        <v>-1.4905043408073304E-2</v>
+      </c>
+      <c r="L285" s="49">
+        <v>6.2000000000001165E-2</v>
+      </c>
+      <c r="M285" s="49">
+        <v>1.4217118327700007E-2</v>
+      </c>
+      <c r="N285" s="43"/>
+      <c r="O285" s="43"/>
+      <c r="P285" s="39"/>
+    </row>
+    <row r="286" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B286" s="49">
+        <v>-1.9253780050038032</v>
+      </c>
+      <c r="C286" s="49"/>
+      <c r="D286" s="49">
+        <v>-2.1506048576162122</v>
+      </c>
+      <c r="E286" s="49"/>
+      <c r="F286" s="49">
+        <v>-2.7953046501107153</v>
+      </c>
+      <c r="G286" s="49"/>
+      <c r="H286" s="49">
+        <v>-3.431817097035947</v>
+      </c>
+      <c r="I286" s="49"/>
+      <c r="J286" s="49">
+        <v>-0.29080171796707799</v>
+      </c>
+      <c r="K286" s="49"/>
+      <c r="L286" s="49">
+        <v>0.28079710144928066</v>
+      </c>
+      <c r="M286" s="49"/>
+      <c r="N286" s="43"/>
+      <c r="O286" s="43"/>
+      <c r="P286" s="39"/>
+    </row>
+    <row r="287" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="45"/>
+      <c r="B287" s="49"/>
+      <c r="C287" s="49"/>
+      <c r="D287" s="49"/>
+      <c r="E287" s="49"/>
+      <c r="F287" s="49"/>
+      <c r="G287" s="49"/>
+      <c r="H287" s="49"/>
+      <c r="I287" s="49"/>
+      <c r="J287" s="49"/>
+      <c r="K287" s="49"/>
+      <c r="L287" s="49"/>
+      <c r="M287" s="49"/>
+      <c r="N287" s="43"/>
+      <c r="O287" s="43"/>
+      <c r="P287" s="39"/>
+    </row>
+    <row r="288" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B288" s="49">
+        <v>33.088000000000001</v>
+      </c>
+      <c r="C288" s="49">
+        <v>3.5618670952504488</v>
+      </c>
+      <c r="D288" s="49">
+        <v>33.203999999999994</v>
+      </c>
+      <c r="E288" s="49">
+        <v>3.5743542985582653</v>
+      </c>
+      <c r="F288" s="49">
+        <v>21.94</v>
+      </c>
+      <c r="G288" s="49">
+        <v>4.4515954932160851</v>
+      </c>
+      <c r="H288" s="49">
+        <v>22.052</v>
+      </c>
+      <c r="I288" s="49">
+        <v>4.4743201374840984</v>
+      </c>
+      <c r="J288" s="49">
+        <v>11.148</v>
+      </c>
+      <c r="K288" s="49">
+        <v>2.5563295986645076</v>
+      </c>
+      <c r="L288" s="49">
+        <v>11.151999999999999</v>
+      </c>
+      <c r="M288" s="49">
+        <v>2.5572468321050046</v>
+      </c>
+      <c r="N288" s="43"/>
+      <c r="O288" s="43"/>
+      <c r="P288" s="39"/>
+    </row>
+    <row r="289" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B289" s="49">
+        <v>110.20516919797497</v>
+      </c>
+      <c r="C289" s="49"/>
+      <c r="D289" s="49">
+        <v>112.93109312291678</v>
+      </c>
+      <c r="E289" s="49"/>
+      <c r="F289" s="49">
+        <v>116.17685994175271</v>
+      </c>
+      <c r="G289" s="49"/>
+      <c r="H289" s="49">
+        <v>119.76971540299806</v>
+      </c>
+      <c r="I289" s="49"/>
+      <c r="J289" s="49">
+        <v>100.08079719903044</v>
+      </c>
+      <c r="K289" s="49"/>
+      <c r="L289" s="49">
+        <v>101.47406733393993</v>
+      </c>
+      <c r="M289" s="49"/>
+      <c r="N289" s="43"/>
+      <c r="O289" s="43"/>
+    </row>
+    <row r="290" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="46"/>
+      <c r="B290" s="47"/>
+      <c r="C290" s="47"/>
+      <c r="D290" s="47"/>
+      <c r="E290" s="46"/>
+      <c r="F290" s="46"/>
+      <c r="G290" s="46"/>
+      <c r="H290" s="46"/>
+      <c r="I290" s="46"/>
+      <c r="J290" s="46"/>
+      <c r="K290" s="46"/>
+      <c r="L290" s="46"/>
+      <c r="M290" s="46"/>
+      <c r="N290" s="43"/>
+      <c r="O290" s="43"/>
+    </row>
+    <row r="291" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="B291" s="41"/>
+      <c r="C291" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D291" s="41"/>
+      <c r="E291" s="43"/>
+      <c r="F291" s="43"/>
+      <c r="G291" s="43"/>
+      <c r="H291" s="43"/>
+      <c r="I291" s="43"/>
+      <c r="J291" s="43"/>
+      <c r="K291" s="43"/>
+      <c r="L291" s="43"/>
+      <c r="M291" s="43"/>
+      <c r="N291" s="43"/>
+      <c r="O291" s="43"/>
+    </row>
+    <row r="292" spans="1:15" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B292" s="43"/>
+      <c r="C292" s="40"/>
+      <c r="D292" s="41"/>
+      <c r="E292" s="43"/>
+      <c r="F292" s="43"/>
+      <c r="G292" s="43"/>
+      <c r="H292" s="43"/>
+      <c r="I292" s="43"/>
+      <c r="J292" s="43"/>
+      <c r="K292" s="43"/>
+      <c r="L292" s="43"/>
+      <c r="M292" s="43"/>
+      <c r="N292" s="43"/>
+      <c r="O292" s="43"/>
+    </row>
+    <row r="293" spans="1:15" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="B293" s="41"/>
+      <c r="C293" s="40"/>
+      <c r="D293" s="41"/>
+      <c r="E293" s="43"/>
+      <c r="F293" s="43"/>
+      <c r="G293" s="43"/>
+      <c r="H293" s="43"/>
+      <c r="I293" s="43"/>
+      <c r="J293" s="43"/>
+      <c r="K293" s="43"/>
+      <c r="L293" s="43"/>
+      <c r="M293" s="43"/>
+      <c r="N293" s="43"/>
+      <c r="O293" s="43"/>
+    </row>
+    <row r="294" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="18"/>
+      <c r="B294" s="28"/>
+      <c r="C294" s="18"/>
+      <c r="D294" s="28"/>
+      <c r="E294" s="25"/>
+      <c r="F294" s="25"/>
+      <c r="G294" s="25"/>
+      <c r="H294" s="25"/>
+      <c r="I294" s="25"/>
+      <c r="J294" s="25"/>
+      <c r="K294" s="25"/>
+      <c r="L294" s="25"/>
+      <c r="M294" s="25"/>
+      <c r="N294" s="25"/>
+      <c r="O294" s="25"/>
+    </row>
+    <row r="295" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B295" s="53"/>
+      <c r="C295" s="53"/>
+      <c r="D295" s="53"/>
+      <c r="E295" s="53"/>
+      <c r="F295" s="53"/>
+      <c r="G295" s="53"/>
+      <c r="H295" s="53"/>
+      <c r="I295" s="53"/>
+      <c r="J295" s="53"/>
+      <c r="K295" s="53"/>
+      <c r="L295" s="53"/>
+      <c r="M295" s="53"/>
+      <c r="N295" s="29"/>
+      <c r="O295" s="29"/>
+    </row>
+    <row r="296" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="B296" s="53"/>
+      <c r="C296" s="53"/>
+      <c r="D296" s="53"/>
+      <c r="E296" s="53"/>
+      <c r="F296" s="53"/>
+      <c r="G296" s="53"/>
+      <c r="H296" s="53"/>
+      <c r="I296" s="53"/>
+      <c r="J296" s="53"/>
+      <c r="K296" s="53"/>
+      <c r="L296" s="53"/>
+      <c r="M296" s="53"/>
+      <c r="N296" s="29"/>
+      <c r="O296" s="29"/>
+    </row>
+    <row r="297" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="B297" s="53"/>
+      <c r="C297" s="53"/>
+      <c r="D297" s="53"/>
+      <c r="E297" s="53"/>
+      <c r="F297" s="53"/>
+      <c r="G297" s="53"/>
+      <c r="H297" s="53"/>
+      <c r="I297" s="53"/>
+      <c r="J297" s="53"/>
+      <c r="K297" s="53"/>
+      <c r="L297" s="53"/>
+      <c r="M297" s="53"/>
+    </row>
+    <row r="298" spans="1:15" s="37" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B279" s="16">
-        <v>29.673000000000002</v>
-      </c>
-      <c r="C279" s="29">
-        <v>3.1942481358004891</v>
-      </c>
-      <c r="D279" s="16">
-        <v>30.216999999999999</v>
-      </c>
-      <c r="E279" s="29">
-        <v>3.2528088133819759</v>
-      </c>
-      <c r="F279" s="16">
-        <v>18.53</v>
-      </c>
-      <c r="G279" s="29">
-        <v>3.7597112346989086</v>
-      </c>
-      <c r="H279" s="16">
-        <v>19.131</v>
-      </c>
-      <c r="I279" s="29">
-        <v>3.8816532990299422</v>
-      </c>
-      <c r="J279" s="16">
-        <v>11.143000000000001</v>
-      </c>
-      <c r="K279" s="29">
-        <v>2.5551830568638874</v>
-      </c>
-      <c r="L279" s="16">
-        <v>11.086</v>
-      </c>
-      <c r="M279" s="29">
-        <v>2.542112480336808</v>
-      </c>
-      <c r="N279" s="54"/>
-      <c r="O279" s="25"/>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A280" s="40"/>
-      <c r="B280" s="40"/>
-      <c r="C280" s="40"/>
-      <c r="D280" s="40"/>
-      <c r="E280" s="40"/>
-      <c r="F280" s="40"/>
-      <c r="G280" s="40"/>
-      <c r="H280" s="40"/>
-      <c r="I280" s="40"/>
-      <c r="J280" s="40"/>
-      <c r="K280" s="40"/>
-      <c r="L280" s="40"/>
-      <c r="M280" s="40"/>
-      <c r="N280" s="40"/>
-      <c r="O280" s="25"/>
-    </row>
-    <row r="281" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="B281" s="16">
-        <v>5.9000000000004604E-2</v>
-      </c>
-      <c r="C281" s="16">
-        <v>6.351249958286953E-3</v>
-      </c>
-      <c r="D281" s="16">
-        <v>0.48699999999999832</v>
-      </c>
-      <c r="E281" s="16">
-        <v>5.2424724231955988E-2</v>
-      </c>
-      <c r="F281" s="16">
-        <v>3.9000000000001478E-2</v>
-      </c>
-      <c r="G281" s="16">
-        <v>7.9130457718972202E-3</v>
-      </c>
-      <c r="H281" s="16">
-        <v>0.27899999999999991</v>
-      </c>
-      <c r="I281" s="16">
-        <v>5.6608712060496558E-2</v>
-      </c>
-      <c r="J281" s="16">
-        <v>2.000000000000135E-2</v>
-      </c>
-      <c r="K281" s="16">
-        <v>4.5861672024840594E-3</v>
-      </c>
-      <c r="L281" s="16">
-        <v>0.20800000000000018</v>
-      </c>
-      <c r="M281" s="16">
-        <v>4.7696138905832353E-2</v>
-      </c>
-      <c r="N281" s="40"/>
-      <c r="O281" s="25"/>
-    </row>
-    <row r="282" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="B282" s="16">
-        <v>0.19923009387453439</v>
-      </c>
-      <c r="C282" s="16"/>
-      <c r="D282" s="16">
-        <v>1.6380760174907443</v>
-      </c>
-      <c r="E282" s="16"/>
-      <c r="F282" s="16">
-        <v>0.21091341733817251</v>
-      </c>
-      <c r="G282" s="16"/>
-      <c r="H282" s="16">
-        <v>1.4799490770210053</v>
-      </c>
-      <c r="I282" s="16"/>
-      <c r="J282" s="16">
-        <v>0.17980760586174011</v>
-      </c>
-      <c r="K282" s="16"/>
-      <c r="L282" s="16">
-        <v>1.912116197830485</v>
-      </c>
-      <c r="M282" s="16"/>
-      <c r="N282" s="40"/>
-      <c r="O282" s="25"/>
-    </row>
-    <row r="283" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="28"/>
-      <c r="B283" s="16"/>
-      <c r="C283" s="16"/>
-      <c r="D283" s="16"/>
-      <c r="E283" s="16"/>
-      <c r="F283" s="16"/>
-      <c r="G283" s="16"/>
-      <c r="H283" s="16"/>
-      <c r="I283" s="16"/>
-      <c r="J283" s="16"/>
-      <c r="K283" s="16"/>
-      <c r="L283" s="16"/>
-      <c r="M283" s="16"/>
-      <c r="N283" s="40"/>
-      <c r="O283" s="25"/>
-    </row>
-    <row r="284" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="B284" s="16">
-        <v>0.63600000000000279</v>
-      </c>
-      <c r="C284" s="16">
-        <v>6.846432158423843E-2</v>
-      </c>
-      <c r="D284" s="16">
-        <v>0.5210000000000008</v>
-      </c>
-      <c r="E284" s="16">
-        <v>5.6084766580799528E-2</v>
-      </c>
-      <c r="F284" s="16">
-        <v>0.42800000000000082</v>
-      </c>
-      <c r="G284" s="16">
-        <v>8.6840604881334382E-2</v>
-      </c>
-      <c r="H284" s="16">
-        <v>0.26200000000000045</v>
-      </c>
-      <c r="I284" s="16">
-        <v>5.3159435698387991E-2</v>
-      </c>
-      <c r="J284" s="16">
-        <v>0.20800000000000018</v>
-      </c>
-      <c r="K284" s="16">
-        <v>4.7696138905832353E-2</v>
-      </c>
-      <c r="L284" s="16">
-        <v>0.25900000000000034</v>
-      </c>
-      <c r="M284" s="16">
-        <v>5.9390865272165971E-2</v>
-      </c>
-      <c r="N284" s="40"/>
-      <c r="O284" s="25"/>
-    </row>
-    <row r="285" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="B285" s="16">
-        <v>2.1903089162103617</v>
-      </c>
-      <c r="C285" s="16"/>
-      <c r="D285" s="16">
-        <v>1.7544450431034511</v>
-      </c>
-      <c r="E285" s="16"/>
-      <c r="F285" s="16">
-        <v>2.3643796265606056</v>
-      </c>
-      <c r="G285" s="16"/>
-      <c r="H285" s="16">
-        <v>1.3885208543113066</v>
-      </c>
-      <c r="I285" s="16"/>
-      <c r="J285" s="16">
-        <v>1.9021490626428914</v>
-      </c>
-      <c r="K285" s="16"/>
-      <c r="L285" s="16">
-        <v>2.3921677288260863</v>
-      </c>
-      <c r="M285" s="16"/>
-      <c r="N285" s="40"/>
-      <c r="O285" s="25"/>
-    </row>
-    <row r="286" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="41"/>
-      <c r="B286" s="42"/>
-      <c r="C286" s="42"/>
-      <c r="D286" s="42"/>
-      <c r="E286" s="41"/>
-      <c r="F286" s="41"/>
-      <c r="G286" s="41"/>
-      <c r="H286" s="41"/>
-      <c r="I286" s="41"/>
-      <c r="J286" s="41"/>
-      <c r="K286" s="41"/>
-      <c r="L286" s="41"/>
-      <c r="M286" s="41"/>
-      <c r="N286" s="40"/>
-      <c r="O286" s="25"/>
-    </row>
-    <row r="287" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="39"/>
-      <c r="B287" s="43"/>
-      <c r="C287" s="43"/>
-      <c r="D287" s="43"/>
-      <c r="E287" s="39"/>
-      <c r="F287" s="39"/>
-      <c r="G287" s="39"/>
-      <c r="H287" s="39"/>
-      <c r="I287" s="39"/>
-      <c r="J287" s="39"/>
-      <c r="K287" s="39"/>
-      <c r="L287" s="39"/>
-      <c r="M287" s="39"/>
-      <c r="N287" s="25"/>
-      <c r="O287" s="25"/>
-    </row>
-    <row r="288" spans="1:16" s="38" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B288" s="29"/>
-      <c r="C288" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="D288" s="29"/>
-      <c r="E288" s="40"/>
-      <c r="F288" s="40"/>
-      <c r="G288" s="40"/>
-      <c r="H288" s="40"/>
-      <c r="I288" s="40"/>
-      <c r="J288" s="40"/>
-      <c r="K288" s="40"/>
-      <c r="L288" s="40"/>
-      <c r="M288" s="40"/>
-      <c r="N288" s="40"/>
-      <c r="O288" s="40"/>
-    </row>
-    <row r="289" spans="1:15" s="38" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B289" s="40"/>
-      <c r="C289" s="15"/>
-      <c r="D289" s="29"/>
-      <c r="E289" s="40"/>
-      <c r="F289" s="40"/>
-      <c r="G289" s="40"/>
-      <c r="H289" s="40"/>
-      <c r="I289" s="40"/>
-      <c r="J289" s="40"/>
-      <c r="K289" s="40"/>
-      <c r="L289" s="40"/>
-      <c r="M289" s="40"/>
-      <c r="N289" s="40"/>
-      <c r="O289" s="40"/>
-    </row>
-    <row r="290" spans="1:15" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B290" s="29"/>
-      <c r="C290" s="15"/>
-      <c r="D290" s="29"/>
-      <c r="E290" s="40"/>
-      <c r="F290" s="40"/>
-      <c r="G290" s="40"/>
-      <c r="H290" s="40"/>
-      <c r="I290" s="40"/>
-      <c r="J290" s="40"/>
-      <c r="K290" s="40"/>
-      <c r="L290" s="40"/>
-      <c r="M290" s="40"/>
-      <c r="N290" s="40"/>
-      <c r="O290" s="40"/>
-    </row>
-    <row r="291" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="18"/>
-      <c r="B291" s="29"/>
-      <c r="C291" s="18"/>
-      <c r="D291" s="29"/>
-      <c r="E291" s="25"/>
-      <c r="F291" s="25"/>
-      <c r="G291" s="25"/>
-      <c r="H291" s="25"/>
-      <c r="I291" s="25"/>
-      <c r="J291" s="25"/>
-      <c r="K291" s="25"/>
-      <c r="L291" s="25"/>
-      <c r="M291" s="25"/>
-      <c r="N291" s="25"/>
-      <c r="O291" s="25"/>
-    </row>
-    <row r="292" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="B292" s="47"/>
-      <c r="C292" s="47"/>
-      <c r="D292" s="47"/>
-      <c r="E292" s="47"/>
-      <c r="F292" s="47"/>
-      <c r="G292" s="47"/>
-      <c r="H292" s="47"/>
-      <c r="I292" s="47"/>
-      <c r="J292" s="47"/>
-      <c r="K292" s="47"/>
-      <c r="L292" s="47"/>
-      <c r="M292" s="47"/>
-      <c r="N292" s="30"/>
-      <c r="O292" s="30"/>
-    </row>
-    <row r="293" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="B293" s="47"/>
-      <c r="C293" s="47"/>
-      <c r="D293" s="47"/>
-      <c r="E293" s="47"/>
-      <c r="F293" s="47"/>
-      <c r="G293" s="47"/>
-      <c r="H293" s="47"/>
-      <c r="I293" s="47"/>
-      <c r="J293" s="47"/>
-      <c r="K293" s="47"/>
-      <c r="L293" s="47"/>
-      <c r="M293" s="47"/>
-      <c r="N293" s="30"/>
-      <c r="O293" s="30"/>
-    </row>
-    <row r="294" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B294" s="47"/>
-      <c r="C294" s="47"/>
-      <c r="D294" s="47"/>
-      <c r="E294" s="47"/>
-      <c r="F294" s="47"/>
-      <c r="G294" s="47"/>
-      <c r="H294" s="47"/>
-      <c r="I294" s="47"/>
-      <c r="J294" s="47"/>
-      <c r="K294" s="47"/>
-      <c r="L294" s="47"/>
-      <c r="M294" s="47"/>
-    </row>
-    <row r="295" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="48"/>
-      <c r="B295" s="48"/>
-      <c r="C295" s="48"/>
-      <c r="D295" s="48"/>
-      <c r="E295" s="48"/>
-      <c r="F295" s="48"/>
-      <c r="G295" s="48"/>
-      <c r="H295" s="48"/>
-      <c r="I295" s="48"/>
-      <c r="J295" s="48"/>
-      <c r="K295" s="48"/>
-      <c r="L295" s="48"/>
-      <c r="M295" s="48"/>
-    </row>
-    <row r="296" spans="1:15" s="38" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B296" s="45"/>
-      <c r="C296" s="45"/>
-      <c r="D296" s="45"/>
-      <c r="E296" s="45"/>
-      <c r="F296" s="45"/>
-      <c r="G296" s="46"/>
-      <c r="H296" s="46"/>
-      <c r="I296" s="46"/>
-      <c r="J296" s="46"/>
-      <c r="K296" s="46"/>
-      <c r="L296" s="46"/>
-      <c r="M296" s="46"/>
-    </row>
-    <row r="298" spans="1:15" s="38" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="B298" s="45"/>
-      <c r="C298" s="45"/>
-      <c r="D298" s="45"/>
-      <c r="E298" s="45"/>
-      <c r="F298" s="45"/>
-      <c r="G298" s="46"/>
-      <c r="H298" s="46"/>
-      <c r="I298" s="46"/>
-      <c r="J298" s="46"/>
-      <c r="K298" s="46"/>
-      <c r="L298" s="46"/>
-      <c r="M298" s="46"/>
-    </row>
-    <row r="655" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="682" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="B298" s="62"/>
+      <c r="C298" s="62"/>
+      <c r="D298" s="62"/>
+      <c r="E298" s="62"/>
+      <c r="F298" s="62"/>
+      <c r="G298" s="60"/>
+      <c r="H298" s="60"/>
+      <c r="I298" s="60"/>
+      <c r="J298" s="60"/>
+      <c r="K298" s="60"/>
+      <c r="L298" s="60"/>
+      <c r="M298" s="60"/>
+    </row>
+    <row r="299" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B299" s="62"/>
+      <c r="C299" s="62"/>
+      <c r="D299" s="62"/>
+      <c r="E299" s="62"/>
+      <c r="F299" s="62"/>
+      <c r="G299" s="62"/>
+      <c r="H299" s="62"/>
+      <c r="I299" s="62"/>
+      <c r="J299" s="62"/>
+      <c r="K299" s="62"/>
+      <c r="L299" s="62"/>
+      <c r="M299" s="62"/>
+    </row>
+    <row r="300" spans="1:15" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="63"/>
+      <c r="B300" s="63"/>
+      <c r="C300" s="63"/>
+      <c r="D300" s="63"/>
+      <c r="E300" s="63"/>
+      <c r="F300" s="63"/>
+      <c r="G300" s="63"/>
+      <c r="H300" s="63"/>
+      <c r="I300" s="63"/>
+      <c r="J300" s="63"/>
+      <c r="K300" s="63"/>
+      <c r="L300" s="63"/>
+      <c r="M300" s="63"/>
+    </row>
+    <row r="302" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A302" s="59"/>
+      <c r="B302" s="39"/>
+      <c r="C302" s="39"/>
+      <c r="D302" s="39"/>
+      <c r="E302" s="39"/>
+      <c r="F302" s="39"/>
+      <c r="G302" s="39"/>
+      <c r="H302" s="39"/>
+      <c r="I302" s="39"/>
+      <c r="J302" s="39"/>
+      <c r="K302" s="39"/>
+      <c r="L302" s="39"/>
+      <c r="M302" s="39"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+    </row>
+    <row r="657" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="683" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="684" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="685" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -13794,46 +13996,46 @@
     <row r="688" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="689" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="690" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="691" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
-    <row r="692" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
-    <row r="693" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
+    <row r="694" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
     <row r="695" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="696" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="697" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="698" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="699" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="702" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="703" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="706" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="707" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="710" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="711" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="712" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A713" s="31"/>
-      <c r="C713" s="32"/>
-      <c r="D713" s="32"/>
-    </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A714" s="33"/>
-      <c r="B714" s="1"/>
-      <c r="C714" s="34"/>
-      <c r="D714" s="34"/>
-    </row>
-    <row r="1104" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
-    <row r="1113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A715" s="30"/>
+      <c r="C715" s="31"/>
+      <c r="D715" s="31"/>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A716" s="32"/>
+      <c r="B716" s="1"/>
+      <c r="C716" s="33"/>
+      <c r="D716" s="33"/>
+    </row>
+    <row r="1106" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
     <row r="1115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1117" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1118" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1119" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1120" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1121" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13858,67 +14060,66 @@
     <row r="1140" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1141" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1142" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1143" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1144" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1145" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1146" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1147" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1148" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1149" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1150" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1143" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1144" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1145" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1146" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1147" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1148" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1149" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1150" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1151" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1152" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1153" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1154" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1153" spans="1:4" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1154" spans="1:4" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1155" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1156" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1157" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1158" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1159" spans="1:4" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1157" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1158" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1159" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1160" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1161" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1162" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1162" s="31"/>
-      <c r="B1162" s="31"/>
-      <c r="C1162" s="32"/>
-      <c r="D1162" s="32"/>
-    </row>
-    <row r="1163" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1163" s="36"/>
-      <c r="C1163" s="37"/>
-      <c r="D1163" s="37"/>
-    </row>
-    <row r="1164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1164" s="18"/>
-      <c r="B1164" s="15"/>
-      <c r="C1164" s="15"/>
-      <c r="D1164" s="15"/>
-    </row>
-    <row r="1165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1165" s="18"/>
-      <c r="B1165" s="15"/>
-      <c r="C1165" s="15"/>
-      <c r="D1165" s="15"/>
+    <row r="1161" spans="1:4" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1162" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1163" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1164" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1164" s="30"/>
+      <c r="B1164" s="30"/>
+      <c r="C1164" s="31"/>
+      <c r="D1164" s="31"/>
+    </row>
+    <row r="1165" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1165" s="35"/>
+      <c r="C1165" s="36"/>
+      <c r="D1165" s="36"/>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1166" s="18"/>
+      <c r="B1166" s="15"/>
+      <c r="C1166" s="15"/>
+      <c r="D1166" s="15"/>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1167" s="18"/>
+      <c r="B1167" s="15"/>
+      <c r="C1167" s="15"/>
+      <c r="D1167" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A296:M296"/>
+    <mergeCell ref="A299:M299"/>
     <mergeCell ref="A298:M298"/>
-    <mergeCell ref="A294:M294"/>
-    <mergeCell ref="A295:M295"/>
+    <mergeCell ref="A300:M300"/>
+    <mergeCell ref="A297:M297"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A293:M293"/>
-    <mergeCell ref="A292:M292"/>
+    <mergeCell ref="A296:M296"/>
+    <mergeCell ref="A295:M295"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A298" r:id="rId1" display="mailto:labour.supply@ons.gov.uk"/>
-  </hyperlinks>
   <pageMargins left="0.27" right="0.17" top="0.52" bottom="0.5" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="15" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="15" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/data/claimant-count.xlsx
+++ b/data/claimant-count.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="304">
   <si>
     <t>Northern Ireland</t>
   </si>
@@ -1021,13 +1021,22 @@
     <t>5. During the Covid-19 outbreak the seasonal adjustment parameters for the Claimant Count will be under constant review and may result in revisions to the seasonally adjusted Claimant Count series for previously published periods. For this release we have revised the series for both April and May 2020.</t>
   </si>
   <si>
-    <t>2020 Apr (r)</t>
-  </si>
-  <si>
-    <t>2020 May (r) #</t>
-  </si>
-  <si>
-    <t>2020 Jun (p)</t>
+    <t>2020 Apr</t>
+  </si>
+  <si>
+    <t>2020 May #</t>
+  </si>
+  <si>
+    <t>2020 Jun</t>
+  </si>
+  <si>
+    <t>2020 Jul</t>
+  </si>
+  <si>
+    <t>2020 Aug # (r)</t>
+  </si>
+  <si>
+    <t>2020 Sep (p)</t>
   </si>
 </sst>
 </file>
@@ -1333,6 +1342,19 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1351,19 +1373,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,12 +1786,12 @@
   <sheetPr codeName="Sheet12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P1167"/>
+  <dimension ref="A1:P1170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C273" sqref="C273"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1803,26 +1812,26 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" ht="12.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1839,28 +1848,28 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="56" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="56" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-    </row>
-    <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63"/>
+    </row>
+    <row r="4" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>4</v>
@@ -1899,7 +1908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1940,7 +1949,7 @@
         <v>3.7763049224876188</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -1981,7 +1990,7 @@
         <v>3.5960298031182565</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -2022,7 +2031,7 @@
         <v>3.7256858003001625</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>4.5086540937845045</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
@@ -2104,7 +2113,7 @@
         <v>4.6616955333804988</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -2145,7 +2154,7 @@
         <v>4.434057492666148</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2195,7 @@
         <v>3.8964883354005275</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2236,7 @@
         <v>3.6105346977801593</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
@@ -2268,7 +2277,7 @@
         <v>3.4506848382408228</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>3.5854035854035855</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>3.5680842132455037</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
@@ -2391,7 +2400,7 @@
         <v>3.4403905371647308</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
@@ -2432,7 +2441,7 @@
         <v>3.4536002277937761</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>3.3129904097646032</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
@@ -2514,7 +2523,7 @@
         <v>3.6273810467358856</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
@@ -2555,7 +2564,7 @@
         <v>4.4921754599173953</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
@@ -2596,7 +2605,7 @@
         <v>4.6371885081562505</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
@@ -2637,7 +2646,7 @@
         <v>4.0292491905395131</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>3.6570294634810763</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
@@ -2719,7 +2728,7 @@
         <v>3.3954775890259761</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
@@ -2760,7 +2769,7 @@
         <v>3.2927355508000669</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
@@ -2801,7 +2810,7 @@
         <v>3.4014311197950438</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>3.3760709623315206</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>31</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>3.3106532834199323</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>3.4247739920057869</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>33</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>3.0665617678335222</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>3.1599332566764935</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>35</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>3.8158391474376154</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
@@ -3088,7 +3097,7 @@
         <v>3.9458099544381717</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>37</v>
       </c>
@@ -3129,7 +3138,7 @@
         <v>3.5126699923054976</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
@@ -3170,7 +3179,7 @@
         <v>3.0602217284676412</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
@@ -3211,7 +3220,7 @@
         <v>2.8610868556574767</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>40</v>
       </c>
@@ -3252,7 +3261,7 @@
         <v>2.7014331370802966</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>41</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>2.7871909979204701</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>42</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>2.8111747228468964</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>43</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>2.7386592251281718</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>44</v>
       </c>
@@ -3416,7 +3425,7 @@
         <v>2.6853307073505883</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>45</v>
       </c>
@@ -3457,7 +3466,7 @@
         <v>2.6469567474683062</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>46</v>
       </c>
@@ -3498,7 +3507,7 @@
         <v>2.7064928175797882</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>47</v>
       </c>
@@ -3539,7 +3548,7 @@
         <v>3.2764589864195686</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>48</v>
       </c>
@@ -3580,7 +3589,7 @@
         <v>3.3927095119453057</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>49</v>
       </c>
@@ -3621,7 +3630,7 @@
         <v>3.1020831981309622</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>50</v>
       </c>
@@ -3662,7 +3671,7 @@
         <v>2.8182287595899629</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>51</v>
       </c>
@@ -3703,7 +3712,7 @@
         <v>2.659654013605826</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>52</v>
       </c>
@@ -3744,7 +3753,7 @@
         <v>2.5594866918542807</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>53</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>2.5771545298956551</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>54</v>
       </c>
@@ -3826,7 +3835,7 @@
         <v>2.5915088610390327</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>55</v>
       </c>
@@ -3867,7 +3876,7 @@
         <v>2.5172528018550211</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>56</v>
       </c>
@@ -3908,7 +3917,7 @@
         <v>2.5028984707116435</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>57</v>
       </c>
@@ -3949,7 +3958,7 @@
         <v>2.4217412907856235</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>58</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>2.5619720642632364</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>59</v>
       </c>
@@ -4031,7 +4040,7 @@
         <v>3.077899850935792</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>60</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>3.210401369182355</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>61</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>2.8984707116435708</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -4154,7 +4163,7 @@
         <v>2.5881963230828688</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>63</v>
       </c>
@@ -4195,7 +4204,7 @@
         <v>2.4098713631093687</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>64</v>
       </c>
@@ -4236,7 +4245,7 @@
         <v>2.2875835035609784</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>65</v>
       </c>
@@ -4277,7 +4286,7 @@
         <v>2.3656983200974921</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>66</v>
       </c>
@@ -4318,7 +4327,7 @@
         <v>2.3297602416768219</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>67</v>
       </c>
@@ -4359,7 +4368,7 @@
         <v>2.2530202847484739</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>68</v>
       </c>
@@ -4400,7 +4409,7 @@
         <v>2.2519394402846946</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>69</v>
       </c>
@@ -4441,7 +4450,7 @@
         <v>2.1606080830953225</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>70</v>
       </c>
@@ -4482,7 +4491,7 @@
         <v>2.3148986302998531</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>71</v>
       </c>
@@ -4523,7 +4532,7 @@
         <v>2.7426428268406107</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>72</v>
       </c>
@@ -4564,7 +4573,7 @@
         <v>2.7585852826813593</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>73</v>
       </c>
@@ -4605,7 +4614,7 @@
         <v>2.5421461788095039</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>74</v>
       </c>
@@ -4646,7 +4655,7 @@
         <v>2.2351863510961114</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>75</v>
       </c>
@@ -4687,7 +4696,7 @@
         <v>2.0998105820077226</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>76</v>
       </c>
@@ -4728,7 +4737,7 @@
         <v>2.0322578030215008</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>77</v>
       </c>
@@ -4769,7 +4778,7 @@
         <v>2.1426357492734693</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>78</v>
       </c>
@@ -4810,7 +4819,7 @@
         <v>2.0673997758815723</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>79</v>
       </c>
@@ -4851,7 +4860,7 @@
         <v>2.0350800971709684</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>80</v>
       </c>
@@ -4892,7 +4901,7 @@
         <v>2.0067341494493731</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>81</v>
       </c>
@@ -4933,7 +4942,7 @@
         <v>2.0062043186508389</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>82</v>
       </c>
@@ -4974,7 +4983,7 @@
         <v>2.1407813414785983</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>83</v>
       </c>
@@ -5015,7 +5024,7 @@
         <v>2.5312666399985164</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>84</v>
       </c>
@@ -5056,7 +5065,7 @@
         <v>2.6679629860204144</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>85</v>
       </c>
@@ -5097,7 +5106,7 @@
         <v>2.4292742112806276</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>86</v>
       </c>
@@ -5138,7 +5147,7 @@
         <v>2.1566762654346334</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>87</v>
       </c>
@@ -5179,7 +5188,7 @@
         <v>2.0067341494493731</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>88</v>
       </c>
@@ -5220,7 +5229,7 @@
         <v>1.9360017378450192</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>89</v>
       </c>
@@ -5261,7 +5270,7 @@
         <v>2.0172134149531731</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>90</v>
       </c>
@@ -5302,7 +5311,7 @@
         <v>1.9792811175639617</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
         <v>91</v>
       </c>
@@ -5343,7 +5352,7 @@
         <v>1.9191126458431436</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>92</v>
       </c>
@@ -5384,7 +5393,7 @@
         <v>1.8971380735624968</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
         <v>93</v>
       </c>
@@ -5425,7 +5434,7 @@
         <v>1.7977292941976666</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
         <v>94</v>
       </c>
@@ -5466,7 +5475,7 @@
         <v>1.8853659812692931</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>95</v>
       </c>
@@ -5507,7 +5516,7 @@
         <v>2.1511536650447338</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>96</v>
       </c>
@@ -5548,7 +5557,7 @@
         <v>2.295557997174698</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>97</v>
       </c>
@@ -5589,7 +5598,7 @@
         <v>2.1072045204834406</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>98</v>
       </c>
@@ -5630,7 +5639,7 @@
         <v>1.8626066028357664</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>99</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>1.7074765866164392</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
         <v>100</v>
       </c>
@@ -5712,7 +5721,7 @@
         <v>1.6507089415581016</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>101</v>
       </c>
@@ -5753,7 +5762,7 @@
         <v>1.721019345522824</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>102</v>
       </c>
@@ -5794,7 +5803,7 @@
         <v>1.7136209522497492</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>103</v>
       </c>
@@ -5835,7 +5844,7 @@
         <v>1.6794352729879558</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>104</v>
       </c>
@@ -5876,7 +5885,7 @@
         <v>1.6541786890557353</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>105</v>
       </c>
@@ -5917,7 +5926,7 @@
         <v>1.6166764886715292</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>106</v>
       </c>
@@ -5958,7 +5967,7 @@
         <v>1.7212744625322403</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>107</v>
       </c>
@@ -5999,7 +6008,7 @@
         <v>2.0149141403704807</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
         <v>108</v>
       </c>
@@ -6040,7 +6049,7 @@
         <v>2.1386458899374197</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
         <v>109</v>
       </c>
@@ -6081,7 +6090,7 @@
         <v>1.9654214405437056</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>110</v>
       </c>
@@ -6122,7 +6131,7 @@
         <v>1.7641341201141902</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>111</v>
       </c>
@@ -6163,7 +6172,7 @@
         <v>1.690660421402276</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>112</v>
       </c>
@@ -6204,7 +6213,7 @@
         <v>1.6176969567091946</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>113</v>
       </c>
@@ -6245,7 +6254,7 @@
         <v>1.7075666167702397</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>114</v>
       </c>
@@ -6286,7 +6295,7 @@
         <v>1.7388148842554092</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
         <v>115</v>
       </c>
@@ -6327,7 +6336,7 @@
         <v>1.7163866922700861</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
         <v>116</v>
       </c>
@@ -6368,7 +6377,7 @@
         <v>1.699754549898947</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="18" t="s">
         <v>117</v>
       </c>
@@ -6409,7 +6418,7 @@
         <v>1.66649026515667</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="18" t="s">
         <v>118</v>
       </c>
@@ -6450,7 +6459,7 @@
         <v>1.6979905347989779</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="18" t="s">
         <v>119</v>
       </c>
@@ -6491,7 +6500,7 @@
         <v>1.9827529723654436</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
         <v>120</v>
       </c>
@@ -6532,7 +6541,7 @@
         <v>2.085317850320799</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="18" t="s">
         <v>121</v>
       </c>
@@ -6573,7 +6582,7 @@
         <v>1.941928622909012</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
         <v>122</v>
       </c>
@@ -6614,7 +6623,7 @@
         <v>1.7740951862547945</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="18" t="s">
         <v>123</v>
       </c>
@@ -6655,7 +6664,7 @@
         <v>1.6415420515999619</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="18" t="s">
         <v>124</v>
       </c>
@@ -6696,7 +6705,7 @@
         <v>1.5445212211016528</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="18" t="s">
         <v>125</v>
       </c>
@@ -6737,7 +6746,7 @@
         <v>1.5523786605638852</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="18" t="s">
         <v>126</v>
       </c>
@@ -6778,7 +6787,7 @@
         <v>1.5644107001664842</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="18" t="s">
         <v>127</v>
       </c>
@@ -6819,7 +6828,7 @@
         <v>1.522912441128949</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="18" t="s">
         <v>128</v>
       </c>
@@ -6860,7 +6869,7 @@
         <v>1.4848519076921565</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="18" t="s">
         <v>129</v>
       </c>
@@ -6901,7 +6910,7 @@
         <v>1.4345137828241408</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="18" t="s">
         <v>130</v>
       </c>
@@ -6942,7 +6951,7 @@
         <v>1.4313216090520227</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="18" t="s">
         <v>131</v>
       </c>
@@ -6983,7 +6992,7 @@
         <v>1.5847915019423151</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="18" t="s">
         <v>132</v>
       </c>
@@ -7024,7 +7033,7 @@
         <v>1.6793289559627351</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="18" t="s">
         <v>133</v>
       </c>
@@ -7065,7 +7074,7 @@
         <v>1.523894648443447</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="18" t="s">
         <v>134</v>
       </c>
@@ -7106,7 +7115,7 @@
         <v>1.393752179272479</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
         <v>135</v>
       </c>
@@ -7147,7 +7156,7 @@
         <v>1.3166489050843961</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="18" t="s">
         <v>136</v>
       </c>
@@ -7188,7 +7197,7 @@
         <v>1.2577164662145239</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="18" t="s">
         <v>137</v>
       </c>
@@ -7229,7 +7238,7 @@
         <v>1.3093823649714653</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="18" t="s">
         <v>138</v>
       </c>
@@ -7270,7 +7279,7 @@
         <v>1.3205819910013441</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="18" t="s">
         <v>139</v>
       </c>
@@ -7311,7 +7320,7 @@
         <v>1.28990475448472</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="18" t="s">
         <v>140</v>
       </c>
@@ -7352,7 +7361,7 @@
         <v>1.3125474766755614</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="18" t="s">
         <v>141</v>
       </c>
@@ -7393,7 +7402,7 @@
         <v>1.3001304999902612</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
         <v>142</v>
       </c>
@@ -7434,7 +7443,7 @@
         <v>1.394109970588808</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="18" t="s">
         <v>143</v>
       </c>
@@ -7475,7 +7484,7 @@
         <v>1.6475623770475838</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="18" t="s">
         <v>144</v>
       </c>
@@ -7516,7 +7525,7 @@
         <v>1.7804970686196218</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="18" t="s">
         <v>145</v>
       </c>
@@ -7557,7 +7566,7 @@
         <v>1.732533452796011</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="18" t="s">
         <v>146</v>
       </c>
@@ -7598,7 +7607,7 @@
         <v>1.6882218889386649</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="18" t="s">
         <v>147</v>
       </c>
@@ -7639,7 +7648,7 @@
         <v>1.7512806528895035</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
         <v>148</v>
       </c>
@@ -7680,7 +7689,7 @@
         <v>1.7583412866909489</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="18" t="s">
         <v>149</v>
       </c>
@@ -7721,7 +7730,7 @@
         <v>1.9680251199610816</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="18" t="s">
         <v>150</v>
       </c>
@@ -7762,7 +7771,7 @@
         <v>2.1697415523565935</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
         <v>151</v>
       </c>
@@ -7803,7 +7812,7 @@
         <v>2.2564722474060646</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="18" t="s">
         <v>152</v>
       </c>
@@ -7844,7 +7853,7 @@
         <v>2.3567162235538945</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="18" t="s">
         <v>153</v>
       </c>
@@ -7885,7 +7894,7 @@
         <v>2.4245283250656624</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="18" t="s">
         <v>154</v>
       </c>
@@ -7926,7 +7935,7 @@
         <v>2.5532730395300329</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="18" t="s">
         <v>155</v>
       </c>
@@ -7967,7 +7976,7 @@
         <v>2.874643433651018</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="18" t="s">
         <v>156</v>
       </c>
@@ -8008,7 +8017,7 @@
         <v>3.1041235163031597</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="18" t="s">
         <v>157</v>
       </c>
@@ -8049,7 +8058,7 @@
         <v>3.0404882471308845</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="18" t="s">
         <v>158</v>
       </c>
@@ -8090,7 +8099,7 @@
         <v>2.9336104784438595</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="18" t="s">
         <v>159</v>
       </c>
@@ -8131,7 +8140,7 @@
         <v>2.8702209052915553</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="18" t="s">
         <v>160</v>
       </c>
@@ -8172,7 +8181,7 @@
         <v>2.8368062465756116</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="18" t="s">
         <v>161</v>
       </c>
@@ -8213,7 +8222,7 @@
         <v>2.938303974172535</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="18" t="s">
         <v>162</v>
       </c>
@@ -8254,7 +8263,7 @@
         <v>3.0151941716275172</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="18" t="s">
         <v>163</v>
       </c>
@@ -8295,7 +8304,7 @@
         <v>3.0366852206056181</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="18" t="s">
         <v>164</v>
       </c>
@@ -8336,7 +8345,7 @@
         <v>3.0488634816932083</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="18" t="s">
         <v>165</v>
       </c>
@@ -8377,7 +8386,7 @@
         <v>3.0610417427807985</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="18" t="s">
         <v>166</v>
       </c>
@@ -8418,7 +8427,7 @@
         <v>3.173989144632372</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="18" t="s">
         <v>167</v>
       </c>
@@ -8459,7 +8468,7 @@
         <v>3.5044737200289409</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="18" t="s">
         <v>168</v>
       </c>
@@ -8500,7 +8509,7 @@
         <v>3.7678584647272189</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="18" t="s">
         <v>169</v>
       </c>
@@ -8541,7 +8550,7 @@
         <v>3.6924010038707769</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="18" t="s">
         <v>170</v>
       </c>
@@ -8582,7 +8591,7 @@
         <v>3.557723763608013</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="18" t="s">
         <v>171</v>
       </c>
@@ -8623,7 +8632,7 @@
         <v>3.4581485700094796</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="18" t="s">
         <v>172</v>
       </c>
@@ -8664,7 +8673,7 @@
         <v>3.3963021068391686</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="18" t="s">
         <v>173</v>
       </c>
@@ -8705,7 +8714,7 @@
         <v>3.6349428174881884</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="18" t="s">
         <v>174</v>
       </c>
@@ -8746,7 +8755,7 @@
         <v>3.7730150321329523</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="18" t="s">
         <v>175</v>
       </c>
@@ -8787,7 +8796,7 @@
         <v>3.8269494909785631</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>176</v>
       </c>
@@ -8828,7 +8837,7 @@
         <v>3.8106492989718896</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>177</v>
       </c>
@@ -8869,7 +8878,7 @@
         <v>3.7991432810848256</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>178</v>
       </c>
@@ -8910,7 +8919,7 @@
         <v>3.9225932646647794</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>179</v>
       </c>
@@ -8951,7 +8960,7 @@
         <v>4.2941417589345425</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>180</v>
       </c>
@@ -8992,7 +9001,7 @@
         <v>4.4621775618268682</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>181</v>
       </c>
@@ -9033,7 +9042,7 @@
         <v>4.3955385415642905</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>182</v>
       </c>
@@ -9074,7 +9083,7 @@
         <v>4.2231879819643172</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>183</v>
       </c>
@@ -9115,7 +9124,7 @@
         <v>4.1294618779259444</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>184</v>
       </c>
@@ -9156,7 +9165,7 @@
         <v>4.0381328609473766</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>185</v>
       </c>
@@ -9197,7 +9206,7 @@
         <v>4.3258972819108159</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
         <v>186</v>
       </c>
@@ -9238,7 +9247,7 @@
         <v>4.3588541742955771</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
         <v>187</v>
       </c>
@@ -9279,7 +9288,7 @@
         <v>4.3495774194020891</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
         <v>188</v>
       </c>
@@ -9320,7 +9329,7 @@
         <v>4.3381035383496167</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
         <v>189</v>
       </c>
@@ -9361,7 +9370,7 @@
         <v>4.2880578869505355</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
         <v>190</v>
       </c>
@@ -9402,7 +9411,7 @@
         <v>4.3788724348552091</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
         <v>191</v>
       </c>
@@ -9443,7 +9452,7 @@
         <v>4.7223564910430493</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="20" t="s">
         <v>192</v>
       </c>
@@ -9484,7 +9493,7 @@
         <v>4.8639490657331326</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="20" t="s">
         <v>193</v>
       </c>
@@ -9525,7 +9534,7 @@
         <v>4.7335862469667447</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="20" t="s">
         <v>194</v>
       </c>
@@ -9566,7 +9575,7 @@
         <v>4.5819845419968459</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="20" t="s">
         <v>195</v>
       </c>
@@ -9607,7 +9616,7 @@
         <v>4.4899493684482916</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
         <v>196</v>
       </c>
@@ -9648,7 +9657,7 @@
         <v>4.4047496985054657</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
         <v>197</v>
       </c>
@@ -9691,7 +9700,7 @@
       <c r="N194" s="24"/>
       <c r="O194" s="24"/>
     </row>
-    <row r="195" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="20" t="s">
         <v>198</v>
       </c>
@@ -9734,7 +9743,7 @@
       <c r="N195" s="24"/>
       <c r="O195" s="24"/>
     </row>
-    <row r="196" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
         <v>199</v>
       </c>
@@ -9777,7 +9786,7 @@
       <c r="N196" s="24"/>
       <c r="O196" s="24"/>
     </row>
-    <row r="197" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="20" t="s">
         <v>200</v>
       </c>
@@ -9820,7 +9829,7 @@
       <c r="N197" s="24"/>
       <c r="O197" s="24"/>
     </row>
-    <row r="198" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="20" t="s">
         <v>201</v>
       </c>
@@ -9863,7 +9872,7 @@
       <c r="N198" s="24"/>
       <c r="O198" s="24"/>
     </row>
-    <row r="199" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="20" t="s">
         <v>202</v>
       </c>
@@ -9906,7 +9915,7 @@
       <c r="N199" s="24"/>
       <c r="O199" s="24"/>
     </row>
-    <row r="200" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="20" t="s">
         <v>203</v>
       </c>
@@ -9949,7 +9958,7 @@
       <c r="N200" s="24"/>
       <c r="O200" s="24"/>
     </row>
-    <row r="201" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="20" t="s">
         <v>204</v>
       </c>
@@ -9992,7 +10001,7 @@
       <c r="N201" s="24"/>
       <c r="O201" s="24"/>
     </row>
-    <row r="202" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="20" t="s">
         <v>205</v>
       </c>
@@ -10035,7 +10044,7 @@
       <c r="N202" s="24"/>
       <c r="O202" s="24"/>
     </row>
-    <row r="203" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="20" t="s">
         <v>206</v>
       </c>
@@ -10078,7 +10087,7 @@
       <c r="N203" s="24"/>
       <c r="O203" s="24"/>
     </row>
-    <row r="204" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="20" t="s">
         <v>207</v>
       </c>
@@ -10121,7 +10130,7 @@
       <c r="N204" s="24"/>
       <c r="O204" s="24"/>
     </row>
-    <row r="205" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="20" t="s">
         <v>208</v>
       </c>
@@ -10164,7 +10173,7 @@
       <c r="N205" s="24"/>
       <c r="O205" s="24"/>
     </row>
-    <row r="206" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="20" t="s">
         <v>209</v>
       </c>
@@ -10207,7 +10216,7 @@
       <c r="N206" s="24"/>
       <c r="O206" s="24"/>
     </row>
-    <row r="207" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="20" t="s">
         <v>210</v>
       </c>
@@ -10250,7 +10259,7 @@
       <c r="N207" s="24"/>
       <c r="O207" s="24"/>
     </row>
-    <row r="208" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="20" t="s">
         <v>211</v>
       </c>
@@ -10293,7 +10302,7 @@
       <c r="N208" s="24"/>
       <c r="O208" s="24"/>
     </row>
-    <row r="209" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="20" t="s">
         <v>212</v>
       </c>
@@ -10336,7 +10345,7 @@
       <c r="N209" s="24"/>
       <c r="O209" s="24"/>
     </row>
-    <row r="210" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="20" t="s">
         <v>213</v>
       </c>
@@ -10379,7 +10388,7 @@
       <c r="N210" s="24"/>
       <c r="O210" s="24"/>
     </row>
-    <row r="211" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="20" t="s">
         <v>214</v>
       </c>
@@ -10422,7 +10431,7 @@
       <c r="N211" s="24"/>
       <c r="O211" s="24"/>
     </row>
-    <row r="212" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="20" t="s">
         <v>215</v>
       </c>
@@ -10465,7 +10474,7 @@
       <c r="N212" s="24"/>
       <c r="O212" s="24"/>
     </row>
-    <row r="213" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="20" t="s">
         <v>216</v>
       </c>
@@ -10508,7 +10517,7 @@
       <c r="N213" s="24"/>
       <c r="O213" s="24"/>
     </row>
-    <row r="214" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="20" t="s">
         <v>217</v>
       </c>
@@ -10551,7 +10560,7 @@
       <c r="N214" s="24"/>
       <c r="O214" s="24"/>
     </row>
-    <row r="215" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="20" t="s">
         <v>218</v>
       </c>
@@ -10594,7 +10603,7 @@
       <c r="N215" s="24"/>
       <c r="O215" s="24"/>
     </row>
-    <row r="216" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="20" t="s">
         <v>219</v>
       </c>
@@ -10637,7 +10646,7 @@
       <c r="N216" s="24"/>
       <c r="O216" s="24"/>
     </row>
-    <row r="217" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="20" t="s">
         <v>220</v>
       </c>
@@ -10681,7 +10690,7 @@
       <c r="O217" s="24"/>
       <c r="P217" s="26"/>
     </row>
-    <row r="218" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="20" t="s">
         <v>221</v>
       </c>
@@ -10725,7 +10734,7 @@
       <c r="O218" s="24"/>
       <c r="P218" s="26"/>
     </row>
-    <row r="219" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="20" t="s">
         <v>222</v>
       </c>
@@ -10769,7 +10778,7 @@
       <c r="O219" s="24"/>
       <c r="P219" s="26"/>
     </row>
-    <row r="220" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="20" t="s">
         <v>223</v>
       </c>
@@ -10813,7 +10822,7 @@
       <c r="O220" s="24"/>
       <c r="P220" s="26"/>
     </row>
-    <row r="221" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="20" t="s">
         <v>224</v>
       </c>
@@ -10857,7 +10866,7 @@
       <c r="O221" s="24"/>
       <c r="P221" s="26"/>
     </row>
-    <row r="222" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="20" t="s">
         <v>225</v>
       </c>
@@ -10901,7 +10910,7 @@
       <c r="O222" s="24"/>
       <c r="P222" s="26"/>
     </row>
-    <row r="223" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="20" t="s">
         <v>226</v>
       </c>
@@ -10945,7 +10954,7 @@
       <c r="O223" s="24"/>
       <c r="P223" s="26"/>
     </row>
-    <row r="224" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="20" t="s">
         <v>227</v>
       </c>
@@ -10989,7 +10998,7 @@
       <c r="O224" s="24"/>
       <c r="P224" s="26"/>
     </row>
-    <row r="225" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="20" t="s">
         <v>228</v>
       </c>
@@ -11033,7 +11042,7 @@
       <c r="O225" s="24"/>
       <c r="P225" s="26"/>
     </row>
-    <row r="226" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="20" t="s">
         <v>229</v>
       </c>
@@ -11077,7 +11086,7 @@
       <c r="O226" s="24"/>
       <c r="P226" s="26"/>
     </row>
-    <row r="227" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="20" t="s">
         <v>230</v>
       </c>
@@ -11121,7 +11130,7 @@
       <c r="O227" s="24"/>
       <c r="P227" s="26"/>
     </row>
-    <row r="228" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="20" t="s">
         <v>231</v>
       </c>
@@ -11165,7 +11174,7 @@
       <c r="O228" s="24"/>
       <c r="P228" s="26"/>
     </row>
-    <row r="229" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="20" t="s">
         <v>232</v>
       </c>
@@ -11209,7 +11218,7 @@
       <c r="O229" s="24"/>
       <c r="P229" s="26"/>
     </row>
-    <row r="230" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="20" t="s">
         <v>233</v>
       </c>
@@ -11253,7 +11262,7 @@
       <c r="O230" s="24"/>
       <c r="P230" s="26"/>
     </row>
-    <row r="231" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="20" t="s">
         <v>234</v>
       </c>
@@ -11297,7 +11306,7 @@
       <c r="O231" s="24"/>
       <c r="P231" s="26"/>
     </row>
-    <row r="232" spans="1:16" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="20" t="s">
         <v>235</v>
       </c>
@@ -11341,7 +11350,7 @@
       <c r="O232" s="24"/>
       <c r="P232" s="26"/>
     </row>
-    <row r="233" spans="1:16" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="20" t="s">
         <v>236</v>
       </c>
@@ -11385,7 +11394,7 @@
       <c r="O233" s="24"/>
       <c r="P233" s="26"/>
     </row>
-    <row r="234" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="20" t="s">
         <v>237</v>
       </c>
@@ -11429,7 +11438,7 @@
       <c r="O234" s="24"/>
       <c r="P234" s="26"/>
     </row>
-    <row r="235" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="20" t="s">
         <v>238</v>
       </c>
@@ -11473,7 +11482,7 @@
       <c r="O235" s="24"/>
       <c r="P235" s="26"/>
     </row>
-    <row r="236" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="20" t="s">
         <v>239</v>
       </c>
@@ -11517,7 +11526,7 @@
       <c r="O236" s="24"/>
       <c r="P236" s="26"/>
     </row>
-    <row r="237" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="20" t="s">
         <v>240</v>
       </c>
@@ -11561,7 +11570,7 @@
       <c r="O237" s="24"/>
       <c r="P237" s="26"/>
     </row>
-    <row r="238" spans="1:16" ht="12.6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="20" t="s">
         <v>241</v>
       </c>
@@ -11605,7 +11614,7 @@
       <c r="O238" s="24"/>
       <c r="P238" s="26"/>
     </row>
-    <row r="239" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="20" t="s">
         <v>242</v>
       </c>
@@ -11649,7 +11658,7 @@
       <c r="O239" s="24"/>
       <c r="P239" s="26"/>
     </row>
-    <row r="240" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="20" t="s">
         <v>243</v>
       </c>
@@ -11693,7 +11702,7 @@
       <c r="O240" s="24"/>
       <c r="P240" s="26"/>
     </row>
-    <row r="241" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="20" t="s">
         <v>244</v>
       </c>
@@ -11737,7 +11746,7 @@
       <c r="O241" s="24"/>
       <c r="P241" s="26"/>
     </row>
-    <row r="242" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="20" t="s">
         <v>245</v>
       </c>
@@ -11781,7 +11790,7 @@
       <c r="O242" s="24"/>
       <c r="P242" s="26"/>
     </row>
-    <row r="243" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="20" t="s">
         <v>246</v>
       </c>
@@ -11825,7 +11834,7 @@
       <c r="O243" s="24"/>
       <c r="P243" s="26"/>
     </row>
-    <row r="244" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="20" t="s">
         <v>247</v>
       </c>
@@ -11869,7 +11878,7 @@
       <c r="O244" s="24"/>
       <c r="P244" s="26"/>
     </row>
-    <row r="245" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="20" t="s">
         <v>248</v>
       </c>
@@ -11913,7 +11922,7 @@
       <c r="O245" s="24"/>
       <c r="P245" s="26"/>
     </row>
-    <row r="246" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="20" t="s">
         <v>249</v>
       </c>
@@ -11957,7 +11966,7 @@
       <c r="O246" s="24"/>
       <c r="P246" s="26"/>
     </row>
-    <row r="247" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="20" t="s">
         <v>250</v>
       </c>
@@ -12001,7 +12010,7 @@
       <c r="O247" s="24"/>
       <c r="P247" s="26"/>
     </row>
-    <row r="248" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="20" t="s">
         <v>251</v>
       </c>
@@ -12045,7 +12054,7 @@
       <c r="O248" s="24"/>
       <c r="P248" s="26"/>
     </row>
-    <row r="249" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="20" t="s">
         <v>252</v>
       </c>
@@ -12089,7 +12098,7 @@
       <c r="O249" s="24"/>
       <c r="P249" s="26"/>
     </row>
-    <row r="250" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="20" t="s">
         <v>253</v>
       </c>
@@ -12133,7 +12142,7 @@
       <c r="O250" s="24"/>
       <c r="P250" s="26"/>
     </row>
-    <row r="251" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="20" t="s">
         <v>254</v>
       </c>
@@ -12177,7 +12186,7 @@
       <c r="O251" s="24"/>
       <c r="P251" s="26"/>
     </row>
-    <row r="252" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="20" t="s">
         <v>255</v>
       </c>
@@ -12221,7 +12230,7 @@
       <c r="O252" s="24"/>
       <c r="P252" s="26"/>
     </row>
-    <row r="253" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="20" t="s">
         <v>256</v>
       </c>
@@ -12265,7 +12274,7 @@
       <c r="O253" s="24"/>
       <c r="P253" s="26"/>
     </row>
-    <row r="254" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="20" t="s">
         <v>257</v>
       </c>
@@ -12309,7 +12318,7 @@
       <c r="O254" s="24"/>
       <c r="P254" s="26"/>
     </row>
-    <row r="255" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="20" t="s">
         <v>258</v>
       </c>
@@ -12353,7 +12362,7 @@
       <c r="O255" s="24"/>
       <c r="P255" s="26"/>
     </row>
-    <row r="256" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="20" t="s">
         <v>259</v>
       </c>
@@ -12397,7 +12406,7 @@
       <c r="O256" s="24"/>
       <c r="P256" s="26"/>
     </row>
-    <row r="257" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="20" t="s">
         <v>260</v>
       </c>
@@ -12441,7 +12450,7 @@
       <c r="O257" s="24"/>
       <c r="P257" s="26"/>
     </row>
-    <row r="258" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="20" t="s">
         <v>261</v>
       </c>
@@ -12485,7 +12494,7 @@
       <c r="O258" s="24"/>
       <c r="P258" s="26"/>
     </row>
-    <row r="259" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="20" t="s">
         <v>262</v>
       </c>
@@ -12529,7 +12538,7 @@
       <c r="O259" s="24"/>
       <c r="P259" s="26"/>
     </row>
-    <row r="260" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="20" t="s">
         <v>263</v>
       </c>
@@ -12573,7 +12582,7 @@
       <c r="O260" s="24"/>
       <c r="P260" s="26"/>
     </row>
-    <row r="261" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="20" t="s">
         <v>264</v>
       </c>
@@ -12617,7 +12626,7 @@
       <c r="O261" s="24"/>
       <c r="P261" s="26"/>
     </row>
-    <row r="262" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="20" t="s">
         <v>265</v>
       </c>
@@ -12661,7 +12670,7 @@
       <c r="O262" s="24"/>
       <c r="P262" s="26"/>
     </row>
-    <row r="263" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="20" t="s">
         <v>266</v>
       </c>
@@ -12705,7 +12714,7 @@
       <c r="O263" s="24"/>
       <c r="P263" s="26"/>
     </row>
-    <row r="264" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="20" t="s">
         <v>267</v>
       </c>
@@ -12749,7 +12758,7 @@
       <c r="O264" s="24"/>
       <c r="P264" s="26"/>
     </row>
-    <row r="265" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="20" t="s">
         <v>268</v>
       </c>
@@ -12793,7 +12802,7 @@
       <c r="O265" s="24"/>
       <c r="P265" s="26"/>
     </row>
-    <row r="266" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="20" t="s">
         <v>269</v>
       </c>
@@ -12837,7 +12846,7 @@
       <c r="O266" s="24"/>
       <c r="P266" s="26"/>
     </row>
-    <row r="267" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="20" t="s">
         <v>270</v>
       </c>
@@ -12881,7 +12890,7 @@
       <c r="O267" s="24"/>
       <c r="P267" s="26"/>
     </row>
-    <row r="268" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="20" t="s">
         <v>271</v>
       </c>
@@ -12925,7 +12934,7 @@
       <c r="O268" s="24"/>
       <c r="P268" s="26"/>
     </row>
-    <row r="269" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="20" t="s">
         <v>272</v>
       </c>
@@ -12969,7 +12978,7 @@
       <c r="O269" s="24"/>
       <c r="P269" s="26"/>
     </row>
-    <row r="270" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="20" t="s">
         <v>273</v>
       </c>
@@ -13013,7 +13022,7 @@
       <c r="O270" s="24"/>
       <c r="P270" s="26"/>
     </row>
-    <row r="271" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="20" t="s">
         <v>283</v>
       </c>
@@ -13057,7 +13066,7 @@
       <c r="O271" s="24"/>
       <c r="P271" s="26"/>
     </row>
-    <row r="272" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="20" t="s">
         <v>284</v>
       </c>
@@ -13101,7 +13110,7 @@
       <c r="O272" s="24"/>
       <c r="P272" s="26"/>
     </row>
-    <row r="273" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="20" t="s">
         <v>285</v>
       </c>
@@ -13145,7 +13154,7 @@
       <c r="O273" s="24"/>
       <c r="P273" s="26"/>
     </row>
-    <row r="274" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="20" t="s">
         <v>286</v>
       </c>
@@ -13189,7 +13198,7 @@
       <c r="O274" s="24"/>
       <c r="P274" s="26"/>
     </row>
-    <row r="275" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="20" t="s">
         <v>288</v>
       </c>
@@ -13233,7 +13242,7 @@
       <c r="O275" s="24"/>
       <c r="P275" s="26"/>
     </row>
-    <row r="276" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="15" t="s">
         <v>290</v>
       </c>
@@ -13277,7 +13286,7 @@
       <c r="O276" s="24"/>
       <c r="P276" s="26"/>
     </row>
-    <row r="277" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="15" t="s">
         <v>291</v>
       </c>
@@ -13321,7 +13330,7 @@
       <c r="O277" s="24"/>
       <c r="P277" s="26"/>
     </row>
-    <row r="278" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="15" t="s">
         <v>293</v>
       </c>
@@ -13364,7 +13373,7 @@
       <c r="N278" s="38"/>
       <c r="O278" s="25"/>
     </row>
-    <row r="279" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="15" t="s">
         <v>294</v>
       </c>
@@ -13407,7 +13416,7 @@
       <c r="N279" s="38"/>
       <c r="O279" s="25"/>
     </row>
-    <row r="280" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="48" t="s">
         <v>295</v>
       </c>
@@ -13456,10 +13465,10 @@
         <v>298</v>
       </c>
       <c r="B281" s="49">
-        <v>56.313999999999993</v>
+        <v>56.603999999999999</v>
       </c>
       <c r="C281" s="50">
-        <v>6.062106612727689</v>
+        <v>6.0933246209972323</v>
       </c>
       <c r="D281" s="49">
         <v>56.527999999999999</v>
@@ -13468,10 +13477,10 @@
         <v>6.0851433498645244</v>
       </c>
       <c r="F281" s="49">
-        <v>36.244999999999997</v>
+        <v>36.578000000000003</v>
       </c>
       <c r="G281" s="50">
-        <v>7.354060102626117</v>
+        <v>7.4216253396015484</v>
       </c>
       <c r="H281" s="49">
         <v>36.509</v>
@@ -13480,10 +13489,10 @@
         <v>7.4076253355435755</v>
       </c>
       <c r="J281" s="49">
-        <v>20.068999999999999</v>
+        <v>20.026</v>
       </c>
       <c r="K281" s="50">
-        <v>4.6019894793324374</v>
+        <v>4.5921292198470969</v>
       </c>
       <c r="L281" s="49">
         <v>20.018999999999998</v>
@@ -13500,10 +13509,10 @@
         <v>299</v>
       </c>
       <c r="B282" s="49">
-        <v>64.350999999999999</v>
+        <v>64.254999999999995</v>
       </c>
       <c r="C282" s="50">
-        <v>6.9272760350115341</v>
+        <v>6.9169417977912717</v>
       </c>
       <c r="D282" s="49">
         <v>63.981999999999999</v>
@@ -13512,10 +13521,10 @@
         <v>6.8875538106961507</v>
       </c>
       <c r="F282" s="49">
-        <v>41.999000000000002</v>
+        <v>41.901000000000003</v>
       </c>
       <c r="G282" s="50">
-        <v>8.5215387018952757</v>
+        <v>8.5016546381607654</v>
       </c>
       <c r="H282" s="49">
         <v>41.902000000000001</v>
@@ -13524,10 +13533,10 @@
         <v>8.5018575367703004</v>
       </c>
       <c r="J282" s="49">
-        <v>22.352</v>
+        <v>22.353999999999999</v>
       </c>
       <c r="K282" s="50">
-        <v>5.1255004654959713</v>
+        <v>5.1259590822162195</v>
       </c>
       <c r="L282" s="49">
         <v>22.08</v>
@@ -13540,457 +13549,586 @@
       <c r="P282" s="44"/>
     </row>
     <row r="283" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="43" t="s">
+      <c r="A283" s="48" t="s">
         <v>300</v>
       </c>
       <c r="B283" s="49">
-        <v>63.112000000000002</v>
+        <v>62.277000000000001</v>
       </c>
       <c r="C283" s="50">
-        <v>6.7938997858875219</v>
+        <v>6.7040134517321146</v>
       </c>
       <c r="D283" s="49">
-        <v>62.605999999999995</v>
+        <v>62.045000000000002</v>
       </c>
       <c r="E283" s="50">
-        <v>6.739429743872388</v>
+        <v>6.6790390451164807</v>
       </c>
       <c r="F283" s="49">
-        <v>40.825000000000003</v>
+        <v>40.064999999999998</v>
       </c>
       <c r="G283" s="50">
-        <v>8.2833357343002127</v>
+        <v>8.1291327910529834</v>
       </c>
       <c r="H283" s="49">
-        <v>40.463999999999999</v>
+        <v>40.113</v>
       </c>
       <c r="I283" s="50">
-        <v>8.2100893362577789</v>
+        <v>8.1388719243107026</v>
       </c>
       <c r="J283" s="49">
-        <v>22.286999999999999</v>
+        <v>22.212</v>
       </c>
       <c r="K283" s="50">
-        <v>5.110595422087898</v>
+        <v>5.0933972950785842</v>
       </c>
       <c r="L283" s="49">
-        <v>22.141999999999999</v>
+        <v>21.931999999999999</v>
       </c>
       <c r="M283" s="50">
-        <v>5.0773457098698902</v>
+        <v>5.02919095424381</v>
       </c>
       <c r="N283" s="51"/>
       <c r="O283" s="51"/>
       <c r="P283" s="52"/>
     </row>
-    <row r="284" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="43"/>
-      <c r="B284" s="43"/>
-      <c r="C284" s="43"/>
-      <c r="D284" s="43"/>
-      <c r="E284" s="43"/>
-      <c r="F284" s="43"/>
-      <c r="G284" s="43"/>
-      <c r="H284" s="43"/>
-      <c r="I284" s="43"/>
-      <c r="J284" s="43"/>
-      <c r="K284" s="43"/>
-      <c r="L284" s="43"/>
-      <c r="M284" s="43"/>
-      <c r="N284" s="43"/>
-      <c r="O284" s="43"/>
-      <c r="P284" s="39"/>
-    </row>
-    <row r="285" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="45" t="s">
-        <v>274</v>
+    <row r="284" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="B284" s="49">
+        <v>61.977000000000004</v>
+      </c>
+      <c r="C284" s="50">
+        <v>6.6717189604187963</v>
+      </c>
+      <c r="D284" s="49">
+        <v>62.072999999999993</v>
+      </c>
+      <c r="E284" s="50">
+        <v>6.6820531976390569</v>
+      </c>
+      <c r="F284" s="49">
+        <v>39.866</v>
+      </c>
+      <c r="G284" s="50">
+        <v>8.0887559677553522</v>
+      </c>
+      <c r="H284" s="49">
+        <v>39.896999999999998</v>
+      </c>
+      <c r="I284" s="50">
+        <v>8.0950458246509633</v>
+      </c>
+      <c r="J284" s="49">
+        <v>22.111000000000001</v>
+      </c>
+      <c r="K284" s="50">
+        <v>5.0702371507060402</v>
+      </c>
+      <c r="L284" s="49">
+        <v>22.175999999999998</v>
+      </c>
+      <c r="M284" s="50">
+        <v>5.0851421941141135</v>
+      </c>
+      <c r="N284" s="51"/>
+      <c r="O284" s="51"/>
+      <c r="P284" s="52"/>
+    </row>
+    <row r="285" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="48" t="s">
+        <v>302</v>
       </c>
       <c r="B285" s="49">
-        <v>-1.2389999999999972</v>
-      </c>
-      <c r="C285" s="49">
-        <v>-0.13337624912401225</v>
+        <v>61.953999999999994</v>
+      </c>
+      <c r="C285" s="50">
+        <v>6.6692430494181068</v>
       </c>
       <c r="D285" s="49">
-        <v>-1.3760000000000048</v>
-      </c>
-      <c r="E285" s="49">
-        <v>-0.14812406682376267</v>
+        <v>62.531000000000006</v>
+      </c>
+      <c r="E285" s="50">
+        <v>6.73135612104406</v>
       </c>
       <c r="F285" s="49">
-        <v>-1.1739999999999995</v>
-      </c>
-      <c r="G285" s="49">
-        <v>-0.23820296759506299</v>
+        <v>39.747999999999998</v>
+      </c>
+      <c r="G285" s="50">
+        <v>8.0648139318301251</v>
       </c>
       <c r="H285" s="49">
-        <v>-1.4380000000000024</v>
-      </c>
-      <c r="I285" s="49">
-        <v>-0.2917682005125215</v>
+        <v>40.008000000000003</v>
+      </c>
+      <c r="I285" s="50">
+        <v>8.1175675703094399</v>
       </c>
       <c r="J285" s="49">
-        <v>-6.5000000000001279E-2</v>
-      </c>
-      <c r="K285" s="49">
-        <v>-1.4905043408073304E-2</v>
+        <v>22.206</v>
+      </c>
+      <c r="K285" s="50">
+        <v>5.0920214449178385</v>
       </c>
       <c r="L285" s="49">
-        <v>6.2000000000001165E-2</v>
-      </c>
-      <c r="M285" s="49">
-        <v>1.4217118327700007E-2</v>
-      </c>
-      <c r="N285" s="43"/>
-      <c r="O285" s="43"/>
-      <c r="P285" s="39"/>
-    </row>
-    <row r="286" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="45" t="s">
-        <v>275</v>
+        <v>22.523</v>
+      </c>
+      <c r="M285" s="50">
+        <v>5.1647121950772084</v>
+      </c>
+      <c r="N285" s="51"/>
+      <c r="O285" s="51"/>
+      <c r="P285" s="52"/>
+    </row>
+    <row r="286" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="43" t="s">
+        <v>303</v>
       </c>
       <c r="B286" s="49">
-        <v>-1.9253780050038032</v>
-      </c>
-      <c r="C286" s="49"/>
+        <v>61.963999999999999</v>
+      </c>
+      <c r="C286" s="50">
+        <v>6.6703195324618836</v>
+      </c>
       <c r="D286" s="49">
-        <v>-2.1506048576162122</v>
-      </c>
-      <c r="E286" s="49"/>
+        <v>62.431999999999995</v>
+      </c>
+      <c r="E286" s="50">
+        <v>6.7206989389106635</v>
+      </c>
       <c r="F286" s="49">
-        <v>-2.7953046501107153</v>
-      </c>
-      <c r="G286" s="49"/>
+        <v>39.625999999999998</v>
+      </c>
+      <c r="G286" s="50">
+        <v>8.0400603014667542</v>
+      </c>
       <c r="H286" s="49">
-        <v>-3.431817097035947</v>
-      </c>
-      <c r="I286" s="49"/>
+        <v>39.656999999999996</v>
+      </c>
+      <c r="I286" s="50">
+        <v>8.0463501583623636</v>
+      </c>
       <c r="J286" s="49">
-        <v>-0.29080171796707799</v>
-      </c>
-      <c r="K286" s="49"/>
+        <v>22.338000000000001</v>
+      </c>
+      <c r="K286" s="50">
+        <v>5.1222901484542325</v>
+      </c>
       <c r="L286" s="49">
-        <v>0.28079710144928066</v>
-      </c>
-      <c r="M286" s="49"/>
-      <c r="N286" s="43"/>
-      <c r="O286" s="43"/>
-      <c r="P286" s="39"/>
-    </row>
-    <row r="287" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="45"/>
-      <c r="B287" s="49"/>
-      <c r="C287" s="49"/>
-      <c r="D287" s="49"/>
-      <c r="E287" s="49"/>
-      <c r="F287" s="49"/>
-      <c r="G287" s="49"/>
-      <c r="H287" s="49"/>
-      <c r="I287" s="49"/>
-      <c r="J287" s="49"/>
-      <c r="K287" s="49"/>
-      <c r="L287" s="49"/>
-      <c r="M287" s="49"/>
+        <v>22.774999999999999</v>
+      </c>
+      <c r="M286" s="50">
+        <v>5.2224979018285049</v>
+      </c>
+      <c r="N286" s="51"/>
+      <c r="O286" s="51"/>
+      <c r="P286" s="52"/>
+    </row>
+    <row r="287" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="43"/>
+      <c r="B287" s="52"/>
+      <c r="C287" s="43"/>
+      <c r="D287" s="43"/>
+      <c r="E287" s="43"/>
+      <c r="F287" s="43"/>
+      <c r="G287" s="43"/>
+      <c r="H287" s="43"/>
+      <c r="I287" s="43"/>
+      <c r="J287" s="43"/>
+      <c r="K287" s="43"/>
+      <c r="L287" s="43"/>
+      <c r="M287" s="43"/>
       <c r="N287" s="43"/>
       <c r="O287" s="43"/>
       <c r="P287" s="39"/>
     </row>
-    <row r="288" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B288" s="49">
-        <v>33.088000000000001</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="C288" s="49">
-        <v>3.5618670952504488</v>
+        <v>1.0764830437768325E-3</v>
       </c>
       <c r="D288" s="49">
-        <v>33.203999999999994</v>
+        <v>-9.9000000000010857E-2</v>
       </c>
       <c r="E288" s="49">
-        <v>3.5743542985582653</v>
+        <v>-1.0657182133396503E-2</v>
       </c>
       <c r="F288" s="49">
-        <v>21.94</v>
+        <v>-0.12199999999999989</v>
       </c>
       <c r="G288" s="49">
-        <v>4.4515954932160851</v>
+        <v>-2.475363036337086E-2</v>
       </c>
       <c r="H288" s="49">
-        <v>22.052</v>
+        <v>-0.3510000000000062</v>
       </c>
       <c r="I288" s="49">
-        <v>4.4743201374840984</v>
+        <v>-7.1217411947076315E-2</v>
       </c>
       <c r="J288" s="49">
-        <v>11.148</v>
+        <v>0.13200000000000145</v>
       </c>
       <c r="K288" s="49">
-        <v>2.5563295986645076</v>
+        <v>3.0268703536393993E-2</v>
       </c>
       <c r="L288" s="49">
-        <v>11.151999999999999</v>
+        <v>0.25199999999999889</v>
       </c>
       <c r="M288" s="49">
-        <v>2.5572468321050046</v>
+        <v>5.7785706751296573E-2</v>
       </c>
       <c r="N288" s="43"/>
       <c r="O288" s="43"/>
       <c r="P288" s="39"/>
     </row>
-    <row r="289" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="45" t="s">
         <v>275</v>
       </c>
       <c r="B289" s="49">
-        <v>110.20516919797497</v>
+        <v>1.614100784453807E-2</v>
       </c>
       <c r="C289" s="49"/>
       <c r="D289" s="49">
-        <v>112.93109312291678</v>
+        <v>-0.15832147254963275</v>
       </c>
       <c r="E289" s="49"/>
       <c r="F289" s="49">
-        <v>116.17685994175271</v>
+        <v>-0.30693368219784617</v>
       </c>
       <c r="G289" s="49"/>
       <c r="H289" s="49">
-        <v>119.76971540299806</v>
+        <v>-0.87732453509299679</v>
       </c>
       <c r="I289" s="49"/>
       <c r="J289" s="49">
-        <v>100.08079719903044</v>
+        <v>0.59443393677385148</v>
       </c>
       <c r="K289" s="49"/>
       <c r="L289" s="49">
-        <v>101.47406733393993</v>
+        <v>1.1188562802468538</v>
       </c>
       <c r="M289" s="49"/>
       <c r="N289" s="43"/>
       <c r="O289" s="43"/>
-    </row>
-    <row r="290" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="46"/>
-      <c r="B290" s="47"/>
-      <c r="C290" s="47"/>
-      <c r="D290" s="47"/>
-      <c r="E290" s="46"/>
-      <c r="F290" s="46"/>
-      <c r="G290" s="46"/>
-      <c r="H290" s="46"/>
-      <c r="I290" s="46"/>
-      <c r="J290" s="46"/>
-      <c r="K290" s="46"/>
-      <c r="L290" s="46"/>
-      <c r="M290" s="46"/>
+      <c r="P289" s="39"/>
+    </row>
+    <row r="290" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="45"/>
+      <c r="B290" s="49"/>
+      <c r="C290" s="49"/>
+      <c r="D290" s="49"/>
+      <c r="E290" s="49"/>
+      <c r="F290" s="49"/>
+      <c r="G290" s="49"/>
+      <c r="H290" s="49"/>
+      <c r="I290" s="49"/>
+      <c r="J290" s="49"/>
+      <c r="K290" s="49"/>
+      <c r="L290" s="49"/>
+      <c r="M290" s="49"/>
       <c r="N290" s="43"/>
       <c r="O290" s="43"/>
-    </row>
-    <row r="291" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="B291" s="41"/>
-      <c r="C291" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="D291" s="41"/>
-      <c r="E291" s="43"/>
-      <c r="F291" s="43"/>
-      <c r="G291" s="43"/>
-      <c r="H291" s="43"/>
-      <c r="I291" s="43"/>
-      <c r="J291" s="43"/>
-      <c r="K291" s="43"/>
-      <c r="L291" s="43"/>
-      <c r="M291" s="43"/>
+      <c r="P290" s="39"/>
+    </row>
+    <row r="291" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B291" s="49">
+        <v>32.305</v>
+      </c>
+      <c r="C291" s="49">
+        <v>3.4775784729226826</v>
+      </c>
+      <c r="D291" s="49">
+        <v>32.760999999999996</v>
+      </c>
+      <c r="E291" s="49">
+        <v>3.5266660997189301</v>
+      </c>
+      <c r="F291" s="49">
+        <v>20.945999999999998</v>
+      </c>
+      <c r="G291" s="49">
+        <v>4.2499142753374706</v>
+      </c>
+      <c r="H291" s="49">
+        <v>21.329999999999995</v>
+      </c>
+      <c r="I291" s="49">
+        <v>4.3278273413992281</v>
+      </c>
+      <c r="J291" s="49">
+        <v>11.359000000000002</v>
+      </c>
+      <c r="K291" s="49">
+        <v>2.6047136626507128</v>
+      </c>
+      <c r="L291" s="49">
+        <v>11.430999999999999</v>
+      </c>
+      <c r="M291" s="49">
+        <v>2.6212238645796546</v>
+      </c>
       <c r="N291" s="43"/>
       <c r="O291" s="43"/>
-    </row>
-    <row r="292" spans="1:15" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="B292" s="43"/>
-      <c r="C292" s="40"/>
-      <c r="D292" s="41"/>
-      <c r="E292" s="43"/>
-      <c r="F292" s="43"/>
-      <c r="G292" s="43"/>
-      <c r="H292" s="43"/>
-      <c r="I292" s="43"/>
-      <c r="J292" s="43"/>
-      <c r="K292" s="43"/>
-      <c r="L292" s="43"/>
-      <c r="M292" s="43"/>
+      <c r="P291" s="39"/>
+    </row>
+    <row r="292" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B292" s="49">
+        <v>108.9214066556526</v>
+      </c>
+      <c r="C292" s="49"/>
+      <c r="D292" s="49">
+        <v>110.41420916045969</v>
+      </c>
+      <c r="E292" s="49"/>
+      <c r="F292" s="49">
+        <v>112.13062098501069</v>
+      </c>
+      <c r="G292" s="49"/>
+      <c r="H292" s="49">
+        <v>116.38566050090027</v>
+      </c>
+      <c r="I292" s="49"/>
+      <c r="J292" s="49">
+        <v>103.46115311048368</v>
+      </c>
+      <c r="K292" s="49"/>
+      <c r="L292" s="49">
+        <v>100.76692524682652</v>
+      </c>
+      <c r="M292" s="49"/>
       <c r="N292" s="43"/>
       <c r="O292" s="43"/>
     </row>
-    <row r="293" spans="1:15" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="B293" s="41"/>
-      <c r="C293" s="40"/>
-      <c r="D293" s="41"/>
-      <c r="E293" s="43"/>
-      <c r="F293" s="43"/>
-      <c r="G293" s="43"/>
-      <c r="H293" s="43"/>
-      <c r="I293" s="43"/>
-      <c r="J293" s="43"/>
-      <c r="K293" s="43"/>
-      <c r="L293" s="43"/>
-      <c r="M293" s="43"/>
+    <row r="293" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="46"/>
+      <c r="B293" s="47"/>
+      <c r="C293" s="47"/>
+      <c r="D293" s="47"/>
+      <c r="E293" s="46"/>
+      <c r="F293" s="46"/>
+      <c r="G293" s="46"/>
+      <c r="H293" s="46"/>
+      <c r="I293" s="46"/>
+      <c r="J293" s="46"/>
+      <c r="K293" s="46"/>
+      <c r="L293" s="46"/>
+      <c r="M293" s="46"/>
       <c r="N293" s="43"/>
       <c r="O293" s="43"/>
     </row>
-    <row r="294" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="18"/>
-      <c r="B294" s="28"/>
-      <c r="C294" s="18"/>
-      <c r="D294" s="28"/>
-      <c r="E294" s="25"/>
-      <c r="F294" s="25"/>
-      <c r="G294" s="25"/>
-      <c r="H294" s="25"/>
-      <c r="I294" s="25"/>
-      <c r="J294" s="25"/>
-      <c r="K294" s="25"/>
-      <c r="L294" s="25"/>
-      <c r="M294" s="25"/>
-      <c r="N294" s="25"/>
-      <c r="O294" s="25"/>
-    </row>
-    <row r="295" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="53" t="s">
+    <row r="294" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="B294" s="41"/>
+      <c r="C294" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D294" s="41"/>
+      <c r="E294" s="43"/>
+      <c r="F294" s="43"/>
+      <c r="G294" s="43"/>
+      <c r="H294" s="43"/>
+      <c r="I294" s="43"/>
+      <c r="J294" s="43"/>
+      <c r="K294" s="43"/>
+      <c r="L294" s="43"/>
+      <c r="M294" s="43"/>
+      <c r="N294" s="43"/>
+      <c r="O294" s="43"/>
+    </row>
+    <row r="295" spans="1:16" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B295" s="43"/>
+      <c r="C295" s="40"/>
+      <c r="D295" s="41"/>
+      <c r="E295" s="43"/>
+      <c r="F295" s="43"/>
+      <c r="G295" s="43"/>
+      <c r="H295" s="43"/>
+      <c r="I295" s="43"/>
+      <c r="J295" s="43"/>
+      <c r="K295" s="43"/>
+      <c r="L295" s="43"/>
+      <c r="M295" s="43"/>
+      <c r="N295" s="43"/>
+      <c r="O295" s="43"/>
+    </row>
+    <row r="296" spans="1:16" s="37" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="B296" s="41"/>
+      <c r="C296" s="40"/>
+      <c r="D296" s="41"/>
+      <c r="E296" s="43"/>
+      <c r="F296" s="43"/>
+      <c r="G296" s="43"/>
+      <c r="H296" s="43"/>
+      <c r="I296" s="43"/>
+      <c r="J296" s="43"/>
+      <c r="K296" s="43"/>
+      <c r="L296" s="43"/>
+      <c r="M296" s="43"/>
+      <c r="N296" s="43"/>
+      <c r="O296" s="43"/>
+    </row>
+    <row r="297" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="18"/>
+      <c r="B297" s="28"/>
+      <c r="C297" s="18"/>
+      <c r="D297" s="28"/>
+      <c r="E297" s="25"/>
+      <c r="F297" s="25"/>
+      <c r="G297" s="25"/>
+      <c r="H297" s="25"/>
+      <c r="I297" s="25"/>
+      <c r="J297" s="25"/>
+      <c r="K297" s="25"/>
+      <c r="L297" s="25"/>
+      <c r="M297" s="25"/>
+      <c r="N297" s="25"/>
+      <c r="O297" s="25"/>
+    </row>
+    <row r="298" spans="1:16" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="B295" s="53"/>
-      <c r="C295" s="53"/>
-      <c r="D295" s="53"/>
-      <c r="E295" s="53"/>
-      <c r="F295" s="53"/>
-      <c r="G295" s="53"/>
-      <c r="H295" s="53"/>
-      <c r="I295" s="53"/>
-      <c r="J295" s="53"/>
-      <c r="K295" s="53"/>
-      <c r="L295" s="53"/>
-      <c r="M295" s="53"/>
-      <c r="N295" s="29"/>
-      <c r="O295" s="29"/>
-    </row>
-    <row r="296" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="53" t="s">
+      <c r="B298" s="58"/>
+      <c r="C298" s="58"/>
+      <c r="D298" s="58"/>
+      <c r="E298" s="58"/>
+      <c r="F298" s="58"/>
+      <c r="G298" s="58"/>
+      <c r="H298" s="58"/>
+      <c r="I298" s="58"/>
+      <c r="J298" s="58"/>
+      <c r="K298" s="58"/>
+      <c r="L298" s="58"/>
+      <c r="M298" s="58"/>
+      <c r="N298" s="29"/>
+      <c r="O298" s="29"/>
+    </row>
+    <row r="299" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="B296" s="53"/>
-      <c r="C296" s="53"/>
-      <c r="D296" s="53"/>
-      <c r="E296" s="53"/>
-      <c r="F296" s="53"/>
-      <c r="G296" s="53"/>
-      <c r="H296" s="53"/>
-      <c r="I296" s="53"/>
-      <c r="J296" s="53"/>
-      <c r="K296" s="53"/>
-      <c r="L296" s="53"/>
-      <c r="M296" s="53"/>
-      <c r="N296" s="29"/>
-      <c r="O296" s="29"/>
-    </row>
-    <row r="297" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="53" t="s">
+      <c r="B299" s="58"/>
+      <c r="C299" s="58"/>
+      <c r="D299" s="58"/>
+      <c r="E299" s="58"/>
+      <c r="F299" s="58"/>
+      <c r="G299" s="58"/>
+      <c r="H299" s="58"/>
+      <c r="I299" s="58"/>
+      <c r="J299" s="58"/>
+      <c r="K299" s="58"/>
+      <c r="L299" s="58"/>
+      <c r="M299" s="58"/>
+      <c r="N299" s="29"/>
+      <c r="O299" s="29"/>
+    </row>
+    <row r="300" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="B297" s="53"/>
-      <c r="C297" s="53"/>
-      <c r="D297" s="53"/>
-      <c r="E297" s="53"/>
-      <c r="F297" s="53"/>
-      <c r="G297" s="53"/>
-      <c r="H297" s="53"/>
-      <c r="I297" s="53"/>
-      <c r="J297" s="53"/>
-      <c r="K297" s="53"/>
-      <c r="L297" s="53"/>
-      <c r="M297" s="53"/>
-    </row>
-    <row r="298" spans="1:15" s="37" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="61" t="s">
+      <c r="B300" s="58"/>
+      <c r="C300" s="58"/>
+      <c r="D300" s="58"/>
+      <c r="E300" s="58"/>
+      <c r="F300" s="58"/>
+      <c r="G300" s="58"/>
+      <c r="H300" s="58"/>
+      <c r="I300" s="58"/>
+      <c r="J300" s="58"/>
+      <c r="K300" s="58"/>
+      <c r="L300" s="58"/>
+      <c r="M300" s="58"/>
+    </row>
+    <row r="301" spans="1:16" s="37" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="B298" s="62"/>
-      <c r="C298" s="62"/>
-      <c r="D298" s="62"/>
-      <c r="E298" s="62"/>
-      <c r="F298" s="62"/>
-      <c r="G298" s="60"/>
-      <c r="H298" s="60"/>
-      <c r="I298" s="60"/>
-      <c r="J298" s="60"/>
-      <c r="K298" s="60"/>
-      <c r="L298" s="60"/>
-      <c r="M298" s="60"/>
-    </row>
-    <row r="299" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="62" t="s">
+      <c r="B301" s="54"/>
+      <c r="C301" s="54"/>
+      <c r="D301" s="54"/>
+      <c r="E301" s="54"/>
+      <c r="F301" s="54"/>
+      <c r="G301" s="56"/>
+      <c r="H301" s="56"/>
+      <c r="I301" s="56"/>
+      <c r="J301" s="56"/>
+      <c r="K301" s="56"/>
+      <c r="L301" s="56"/>
+      <c r="M301" s="56"/>
+    </row>
+    <row r="302" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="B299" s="62"/>
-      <c r="C299" s="62"/>
-      <c r="D299" s="62"/>
-      <c r="E299" s="62"/>
-      <c r="F299" s="62"/>
-      <c r="G299" s="62"/>
-      <c r="H299" s="62"/>
-      <c r="I299" s="62"/>
-      <c r="J299" s="62"/>
-      <c r="K299" s="62"/>
-      <c r="L299" s="62"/>
-      <c r="M299" s="62"/>
-    </row>
-    <row r="300" spans="1:15" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="63"/>
-      <c r="B300" s="63"/>
-      <c r="C300" s="63"/>
-      <c r="D300" s="63"/>
-      <c r="E300" s="63"/>
-      <c r="F300" s="63"/>
-      <c r="G300" s="63"/>
-      <c r="H300" s="63"/>
-      <c r="I300" s="63"/>
-      <c r="J300" s="63"/>
-      <c r="K300" s="63"/>
-      <c r="L300" s="63"/>
-      <c r="M300" s="63"/>
-    </row>
-    <row r="302" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A302" s="59"/>
-      <c r="B302" s="39"/>
-      <c r="C302" s="39"/>
-      <c r="D302" s="39"/>
-      <c r="E302" s="39"/>
-      <c r="F302" s="39"/>
-      <c r="G302" s="39"/>
-      <c r="H302" s="39"/>
-      <c r="I302" s="39"/>
-      <c r="J302" s="39"/>
-      <c r="K302" s="39"/>
-      <c r="L302" s="39"/>
-      <c r="M302" s="39"/>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
-      <c r="D303" s="1"/>
-    </row>
-    <row r="657" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="684" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="685" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="B302" s="54"/>
+      <c r="C302" s="54"/>
+      <c r="D302" s="54"/>
+      <c r="E302" s="54"/>
+      <c r="F302" s="54"/>
+      <c r="G302" s="54"/>
+      <c r="H302" s="54"/>
+      <c r="I302" s="54"/>
+      <c r="J302" s="54"/>
+      <c r="K302" s="54"/>
+      <c r="L302" s="54"/>
+      <c r="M302" s="54"/>
+    </row>
+    <row r="303" spans="1:16" s="37" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="57"/>
+      <c r="B303" s="57"/>
+      <c r="C303" s="57"/>
+      <c r="D303" s="57"/>
+      <c r="E303" s="57"/>
+      <c r="F303" s="57"/>
+      <c r="G303" s="57"/>
+      <c r="H303" s="57"/>
+      <c r="I303" s="57"/>
+      <c r="J303" s="57"/>
+      <c r="K303" s="57"/>
+      <c r="L303" s="57"/>
+      <c r="M303" s="57"/>
+    </row>
+    <row r="305" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A305" s="53"/>
+      <c r="B305" s="39"/>
+      <c r="C305" s="39"/>
+      <c r="D305" s="39"/>
+      <c r="E305" s="39"/>
+      <c r="F305" s="39"/>
+      <c r="G305" s="39"/>
+      <c r="H305" s="39"/>
+      <c r="I305" s="39"/>
+      <c r="J305" s="39"/>
+      <c r="K305" s="39"/>
+      <c r="L305" s="39"/>
+      <c r="M305" s="39"/>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+    </row>
+    <row r="660" s="18" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="686" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="687" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="688" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -13998,47 +14136,47 @@
     <row r="690" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="691" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="692" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="693" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
-    <row r="694" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
-    <row r="695" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
+    <row r="697" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
     <row r="698" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="699" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="700" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="701" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="705" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="709" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" spans="1:4" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="713" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="714" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A715" s="30"/>
-      <c r="C715" s="31"/>
-      <c r="D715" s="31"/>
-    </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A716" s="32"/>
-      <c r="B716" s="1"/>
-      <c r="C716" s="33"/>
-      <c r="D716" s="33"/>
-    </row>
-    <row r="1106" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
-    <row r="1115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" spans="1:4" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A718" s="30"/>
+      <c r="C718" s="31"/>
+      <c r="D718" s="31"/>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A719" s="32"/>
+      <c r="B719" s="1"/>
+      <c r="C719" s="33"/>
+      <c r="D719" s="33"/>
+    </row>
+    <row r="1109" s="18" customFormat="1" ht="9" x14ac:dyDescent="0.15"/>
     <row r="1118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1119" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1120" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1121" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1122" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1123" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1124" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14062,61 +14200,64 @@
     <row r="1142" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1143" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1144" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1145" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1146" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1147" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1145" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1146" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1147" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1148" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1149" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1150" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1151" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1152" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1153" spans="1:4" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1151" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1152" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1153" spans="1:4" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1154" spans="1:4" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1155" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1156" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1157" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1155" spans="1:4" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1156" spans="1:4" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1157" spans="1:4" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1158" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1159" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1160" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1161" spans="1:4" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1159" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1160" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1161" spans="1:4" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1162" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1163" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1164" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1164" s="30"/>
-      <c r="B1164" s="30"/>
-      <c r="C1164" s="31"/>
-      <c r="D1164" s="31"/>
-    </row>
-    <row r="1165" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1165" s="35"/>
-      <c r="C1165" s="36"/>
-      <c r="D1165" s="36"/>
-    </row>
-    <row r="1166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1166" s="18"/>
-      <c r="B1166" s="15"/>
-      <c r="C1166" s="15"/>
-      <c r="D1166" s="15"/>
-    </row>
-    <row r="1167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1167" s="18"/>
-      <c r="B1167" s="15"/>
-      <c r="C1167" s="15"/>
-      <c r="D1167" s="15"/>
+    <row r="1164" spans="1:4" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1165" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1166" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1167" spans="1:4" s="25" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1167" s="30"/>
+      <c r="B1167" s="30"/>
+      <c r="C1167" s="31"/>
+      <c r="D1167" s="31"/>
+    </row>
+    <row r="1168" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1168" s="35"/>
+      <c r="C1168" s="36"/>
+      <c r="D1168" s="36"/>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1169" s="18"/>
+      <c r="B1169" s="15"/>
+      <c r="C1169" s="15"/>
+      <c r="D1169" s="15"/>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1170" s="18"/>
+      <c r="B1170" s="15"/>
+      <c r="C1170" s="15"/>
+      <c r="D1170" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A299:M299"/>
-    <mergeCell ref="A298:M298"/>
+    <mergeCell ref="A302:M302"/>
+    <mergeCell ref="A301:M301"/>
+    <mergeCell ref="A303:M303"/>
     <mergeCell ref="A300:M300"/>
-    <mergeCell ref="A297:M297"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A296:M296"/>
-    <mergeCell ref="A295:M295"/>
+    <mergeCell ref="A299:M299"/>
+    <mergeCell ref="A298:M298"/>
   </mergeCells>
   <pageMargins left="0.27" right="0.17" top="0.52" bottom="0.5" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="15" orientation="landscape" r:id="rId1"/>
